--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/9/flowCurve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/9/flowCurve.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>565.9939071320113</v>
+        <v>443.3738040817021</v>
       </c>
       <c r="C2" t="n">
-        <v>565993907.1320113</v>
+        <v>443373804.0817021</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.002</v>
       </c>
       <c r="B3" t="n">
-        <v>737.5671206262824</v>
+        <v>592.8795731050691</v>
       </c>
       <c r="C3" t="n">
-        <v>737567120.6262825</v>
+        <v>592879573.105069</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.004</v>
       </c>
       <c r="B4" t="n">
-        <v>813.1542042412534</v>
+        <v>662.2330213489756</v>
       </c>
       <c r="C4" t="n">
-        <v>813154204.2412534</v>
+        <v>662233021.3489757</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.006</v>
       </c>
       <c r="B5" t="n">
-        <v>864.4123670210947</v>
+        <v>710.0481058360831</v>
       </c>
       <c r="C5" t="n">
-        <v>864412367.0210947</v>
+        <v>710048105.8360831</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.008</v>
       </c>
       <c r="B6" t="n">
-        <v>903.8602018829722</v>
+        <v>747.2167027636222</v>
       </c>
       <c r="C6" t="n">
-        <v>903860201.8829722</v>
+        <v>747216702.7636222</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.01</v>
       </c>
       <c r="B7" t="n">
-        <v>936.2087233862684</v>
+        <v>777.9160275673698</v>
       </c>
       <c r="C7" t="n">
-        <v>936208723.3862684</v>
+        <v>777916027.5673698</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.012</v>
       </c>
       <c r="B8" t="n">
-        <v>963.776546542912</v>
+        <v>804.225339279739</v>
       </c>
       <c r="C8" t="n">
-        <v>963776546.542912</v>
+        <v>804225339.279739</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.014</v>
       </c>
       <c r="B9" t="n">
-        <v>987.8867775492188</v>
+        <v>827.3407002883788</v>
       </c>
       <c r="C9" t="n">
-        <v>987886777.5492188</v>
+        <v>827340700.2883788</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.016</v>
       </c>
       <c r="B10" t="n">
-        <v>1009.370018451551</v>
+        <v>848.0176149951851</v>
       </c>
       <c r="C10" t="n">
-        <v>1009370018.451551</v>
+        <v>848017614.9951851</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.018</v>
       </c>
       <c r="B11" t="n">
-        <v>1028.783877018353</v>
+        <v>866.7658289431261</v>
       </c>
       <c r="C11" t="n">
-        <v>1028783877.018353</v>
+        <v>866765828.9431261</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.02</v>
       </c>
       <c r="B12" t="n">
-        <v>1046.521853980581</v>
+        <v>883.9465881917903</v>
       </c>
       <c r="C12" t="n">
-        <v>1046521853.980581</v>
+        <v>883946588.1917903</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.022</v>
       </c>
       <c r="B13" t="n">
-        <v>1062.872588402274</v>
+        <v>899.8258377921427</v>
       </c>
       <c r="C13" t="n">
-        <v>1062872588.402274</v>
+        <v>899825837.7921427</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.024</v>
       </c>
       <c r="B14" t="n">
-        <v>1078.054438627845</v>
+        <v>914.6054110262364</v>
       </c>
       <c r="C14" t="n">
-        <v>1078054438.627846</v>
+        <v>914605411.0262364</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.026</v>
       </c>
       <c r="B15" t="n">
-        <v>1092.236815334355</v>
+        <v>928.442343562596</v>
       </c>
       <c r="C15" t="n">
-        <v>1092236815.334355</v>
+        <v>928442343.562596</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.028</v>
       </c>
       <c r="B16" t="n">
-        <v>1105.553945058016</v>
+        <v>941.461376131621</v>
       </c>
       <c r="C16" t="n">
-        <v>1105553945.058016</v>
+        <v>941461376.131621</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.03</v>
       </c>
       <c r="B17" t="n">
-        <v>1118.114085413675</v>
+        <v>953.7633504570751</v>
       </c>
       <c r="C17" t="n">
-        <v>1118114085.413675</v>
+        <v>953763350.4570751</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.032</v>
       </c>
       <c r="B18" t="n">
-        <v>1130.005890595932</v>
+        <v>965.4310243461719</v>
       </c>
       <c r="C18" t="n">
-        <v>1130005890.595932</v>
+        <v>965431024.3461719</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.034</v>
       </c>
       <c r="B19" t="n">
-        <v>1141.302927127956</v>
+        <v>976.5332069985463</v>
       </c>
       <c r="C19" t="n">
-        <v>1141302927.127956</v>
+        <v>976533206.9985464</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.036</v>
       </c>
       <c r="B20" t="n">
-        <v>1152.066951987056</v>
+        <v>987.1277676394697</v>
       </c>
       <c r="C20" t="n">
-        <v>1152066951.987056</v>
+        <v>987127767.6394696</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.038</v>
       </c>
       <c r="B21" t="n">
-        <v>1162.350340618193</v>
+        <v>997.263868500145</v>
       </c>
       <c r="C21" t="n">
-        <v>1162350340.618193</v>
+        <v>997263868.500145</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.04</v>
       </c>
       <c r="B22" t="n">
-        <v>1172.197917420192</v>
+        <v>1006.983651470652</v>
       </c>
       <c r="C22" t="n">
-        <v>1172197917.420192</v>
+        <v>1006983651.470652</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.042</v>
       </c>
       <c r="B23" t="n">
-        <v>1181.648357618152</v>
+        <v>1016.323532108559</v>
       </c>
       <c r="C23" t="n">
-        <v>1181648357.618152</v>
+        <v>1016323532.108559</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.044</v>
       </c>
       <c r="B24" t="n">
-        <v>1190.735276074568</v>
+        <v>1025.315206342403</v>
       </c>
       <c r="C24" t="n">
-        <v>1190735276.074568</v>
+        <v>1025315206.342403</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.046</v>
       </c>
       <c r="B25" t="n">
-        <v>1199.488083704282</v>
+        <v>1033.986443539514</v>
       </c>
       <c r="C25" t="n">
-        <v>1199488083.704282</v>
+        <v>1033986443.539514</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.048</v>
       </c>
       <c r="B26" t="n">
-        <v>1207.932668836638</v>
+        <v>1042.361718397784</v>
       </c>
       <c r="C26" t="n">
-        <v>1207932668.836638</v>
+        <v>1042361718.397784</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.05</v>
       </c>
       <c r="B27" t="n">
-        <v>1216.091944963355</v>
+        <v>1050.462719631469</v>
       </c>
       <c r="C27" t="n">
-        <v>1216091944.963355</v>
+        <v>1050462719.631469</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.052</v>
       </c>
       <c r="B28" t="n">
-        <v>1223.986295266214</v>
+        <v>1058.308763343158</v>
       </c>
       <c r="C28" t="n">
-        <v>1223986295.266214</v>
+        <v>1058308763.343158</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.054</v>
       </c>
       <c r="B29" t="n">
-        <v>1231.633936522396</v>
+        <v>1065.917131849184</v>
       </c>
       <c r="C29" t="n">
-        <v>1231633936.522396</v>
+        <v>1065917131.849184</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.056</v>
       </c>
       <c r="B30" t="n">
-        <v>1239.051219398809</v>
+        <v>1073.303353612967</v>
       </c>
       <c r="C30" t="n">
-        <v>1239051219.398809</v>
+        <v>1073303353.612967</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.058</v>
       </c>
       <c r="B31" t="n">
-        <v>1246.252878088339</v>
+        <v>1080.481436221412</v>
       </c>
       <c r="C31" t="n">
-        <v>1246252878.088339</v>
+        <v>1080481436.221412</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.06</v>
       </c>
       <c r="B32" t="n">
-        <v>1253.25223925511</v>
+        <v>1087.464061599558</v>
       </c>
       <c r="C32" t="n">
-        <v>1253252239.25511</v>
+        <v>1087464061.599558</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.062</v>
       </c>
       <c r="B33" t="n">
-        <v>1260.061398033356</v>
+        <v>1094.262750616638</v>
       </c>
       <c r="C33" t="n">
-        <v>1260061398.033356</v>
+        <v>1094262750.616638</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.064</v>
       </c>
       <c r="B34" t="n">
-        <v>1266.691367152191</v>
+        <v>1100.888002698438</v>
       </c>
       <c r="C34" t="n">
-        <v>1266691367.152191</v>
+        <v>1100888002.698438</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0.066</v>
       </c>
       <c r="B35" t="n">
-        <v>1273.152203987585</v>
+        <v>1107.34941489034</v>
       </c>
       <c r="C35" t="n">
-        <v>1273152203.987585</v>
+        <v>1107349414.89034</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0.068</v>
       </c>
       <c r="B36" t="n">
-        <v>1279.453119367788</v>
+        <v>1113.65578391652</v>
       </c>
       <c r="C36" t="n">
-        <v>1279453119.367788</v>
+        <v>1113655783.91652</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1285.602571203814</v>
+        <v>1119.815194084352</v>
       </c>
       <c r="C37" t="n">
-        <v>1285602571.203814</v>
+        <v>1119815194.084352</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1291.608345427858</v>
+        <v>1125.835093339161</v>
       </c>
       <c r="C38" t="n">
-        <v>1291608345.427858</v>
+        <v>1125835093.339161</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0.074</v>
       </c>
       <c r="B39" t="n">
-        <v>1297.477626259569</v>
+        <v>1131.722359346419</v>
       </c>
       <c r="C39" t="n">
-        <v>1297477626.259568</v>
+        <v>1131722359.346419</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0.076</v>
       </c>
       <c r="B40" t="n">
-        <v>1303.217057453495</v>
+        <v>1137.483357139139</v>
       </c>
       <c r="C40" t="n">
-        <v>1303217057.453495</v>
+        <v>1137483357.139139</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0.078</v>
       </c>
       <c r="B41" t="n">
-        <v>1308.832795888765</v>
+        <v>1143.123989597481</v>
       </c>
       <c r="C41" t="n">
-        <v>1308832795.888765</v>
+        <v>1143123989.597481</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0.08</v>
       </c>
       <c r="B42" t="n">
-        <v>1314.330558627439</v>
+        <v>1148.649741810066</v>
       </c>
       <c r="C42" t="n">
-        <v>1314330558.627439</v>
+        <v>1148649741.810066</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>0.082</v>
       </c>
       <c r="B43" t="n">
-        <v>1319.715664378699</v>
+        <v>1154.065720190829</v>
       </c>
       <c r="C43" t="n">
-        <v>1319715664.378699</v>
+        <v>1154065720.190829</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1324.99307015224</v>
+        <v>1159.376687082427</v>
       </c>
       <c r="C44" t="n">
-        <v>1324993070.15224</v>
+        <v>1159376687.082427</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1330.16740375876</v>
+        <v>1164.587091460575</v>
       </c>
       <c r="C45" t="n">
-        <v>1330167403.758759</v>
+        <v>1164587091.460575</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1335.24299271245</v>
+        <v>1169.701096257922</v>
       </c>
       <c r="C46" t="n">
-        <v>1335242992.71245</v>
+        <v>1169701096.257922</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0.09</v>
       </c>
       <c r="B47" t="n">
-        <v>1340.223890005478</v>
+        <v>1174.722602746985</v>
       </c>
       <c r="C47" t="n">
-        <v>1340223890.005478</v>
+        <v>1174722602.746985</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0.092</v>
       </c>
       <c r="B48" t="n">
-        <v>1345.113897154101</v>
+        <v>1179.655272356181</v>
       </c>
       <c r="C48" t="n">
-        <v>1345113897.154101</v>
+        <v>1179655272.356181</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0.094</v>
       </c>
       <c r="B49" t="n">
-        <v>1349.916584857525</v>
+        <v>1184.5025462384</v>
       </c>
       <c r="C49" t="n">
-        <v>1349916584.857525</v>
+        <v>1184502546.2384</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0.096</v>
       </c>
       <c r="B50" t="n">
-        <v>1354.635311561709</v>
+        <v>1189.267662865946</v>
       </c>
       <c r="C50" t="n">
-        <v>1354635311.561709</v>
+        <v>1189267662.865946</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>0.098</v>
       </c>
       <c r="B51" t="n">
-        <v>1359.273240179277</v>
+        <v>1193.95367388738</v>
       </c>
       <c r="C51" t="n">
-        <v>1359273240.179277</v>
+        <v>1193953673.88738</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>0.1</v>
       </c>
       <c r="B52" t="n">
-        <v>1363.833353182132</v>
+        <v>1198.563458449494</v>
       </c>
       <c r="C52" t="n">
-        <v>1363833353.182132</v>
+        <v>1198563458.449494</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>0.102</v>
       </c>
       <c r="B53" t="n">
-        <v>1368.31846625416</v>
+        <v>1203.099736160347</v>
       </c>
       <c r="C53" t="n">
-        <v>1368318466.25416</v>
+        <v>1203099736.160347</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0.104</v>
       </c>
       <c r="B54" t="n">
-        <v>1372.731240666612</v>
+        <v>1207.565078846131</v>
       </c>
       <c r="C54" t="n">
-        <v>1372731240.666612</v>
+        <v>1207565078.846131</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0.106</v>
       </c>
       <c r="B55" t="n">
-        <v>1377.074194517664</v>
+        <v>1211.961921234843</v>
       </c>
       <c r="C55" t="n">
-        <v>1377074194.517664</v>
+        <v>1211961921.234843</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0.108</v>
       </c>
       <c r="B56" t="n">
-        <v>1381.349712959626</v>
+        <v>1216.292570682925</v>
       </c>
       <c r="C56" t="n">
-        <v>1381349712.959626</v>
+        <v>1216292570.682925</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0.11</v>
       </c>
       <c r="B57" t="n">
-        <v>1385.56005752184</v>
+        <v>1220.559216046531</v>
       </c>
       <c r="C57" t="n">
-        <v>1385560057.52184</v>
+        <v>1220559216.046531</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0.112</v>
       </c>
       <c r="B58" t="n">
-        <v>1389.707374624036</v>
+        <v>1224.763935786652</v>
       </c>
       <c r="C58" t="n">
-        <v>1389707374.624036</v>
+        <v>1224763935.786652</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0.114</v>
       </c>
       <c r="B59" t="n">
-        <v>1393.793703363501</v>
+        <v>1228.908705386635</v>
       </c>
       <c r="C59" t="n">
-        <v>1393793703.363501</v>
+        <v>1228908705.386635</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0.116</v>
       </c>
       <c r="B60" t="n">
-        <v>1397.820982649514</v>
+        <v>1232.995404151326</v>
       </c>
       <c r="C60" t="n">
-        <v>1397820982.649514</v>
+        <v>1232995404.151326</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0.118</v>
       </c>
       <c r="B61" t="n">
-        <v>1401.791057749967</v>
+        <v>1237.02582144906</v>
       </c>
       <c r="C61" t="n">
-        <v>1401791057.749967</v>
+        <v>1237025821.449059</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0.12</v>
       </c>
       <c r="B62" t="n">
-        <v>1405.705686307636</v>
+        <v>1241.001662450722</v>
       </c>
       <c r="C62" t="n">
-        <v>1405705686.307636</v>
+        <v>1241001662.450722</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0.122</v>
       </c>
       <c r="B63" t="n">
-        <v>1409.566543877105</v>
+        <v>1244.924553414032</v>
       </c>
       <c r="C63" t="n">
-        <v>1409566543.877105</v>
+        <v>1244924553.414032</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0.124</v>
       </c>
       <c r="B64" t="n">
-        <v>1413.375229027697</v>
+        <v>1248.796046555868</v>
       </c>
       <c r="C64" t="n">
-        <v>1413375229.027697</v>
+        <v>1248796046.555868</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0.126</v>
       </c>
       <c r="B65" t="n">
-        <v>1417.133268052802</v>
+        <v>1252.617624550816</v>
       </c>
       <c r="C65" t="n">
-        <v>1417133268.052802</v>
+        <v>1252617624.550816</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0.128</v>
       </c>
       <c r="B66" t="n">
-        <v>1420.842119321673</v>
+        <v>1256.390704690037</v>
       </c>
       <c r="C66" t="n">
-        <v>1420842119.321673</v>
+        <v>1256390704.690037</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0.13</v>
       </c>
       <c r="B67" t="n">
-        <v>1424.503177305947</v>
+        <v>1260.116642730957</v>
       </c>
       <c r="C67" t="n">
-        <v>1424503177.305947</v>
+        <v>1260116642.730957</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0.132</v>
       </c>
       <c r="B68" t="n">
-        <v>1428.117776309785</v>
+        <v>1263.796736465118</v>
       </c>
       <c r="C68" t="n">
-        <v>1428117776.309785</v>
+        <v>1263796736.465118</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0.134</v>
       </c>
       <c r="B69" t="n">
-        <v>1431.687193929562</v>
+        <v>1267.432229028757</v>
       </c>
       <c r="C69" t="n">
-        <v>1431687193.929562</v>
+        <v>1267432229.028757</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0.136</v>
       </c>
       <c r="B70" t="n">
-        <v>1435.212654266431</v>
+        <v>1271.024311978169</v>
       </c>
       <c r="C70" t="n">
-        <v>1435212654.266431</v>
+        <v>1271024311.978169</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0.138</v>
       </c>
       <c r="B71" t="n">
-        <v>1438.695330912751</v>
+        <v>1274.574128149768</v>
       </c>
       <c r="C71" t="n">
-        <v>1438695330.912751</v>
+        <v>1274574128.149768</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0.14</v>
       </c>
       <c r="B72" t="n">
-        <v>1442.136349731315</v>
+        <v>1278.082774322786</v>
       </c>
       <c r="C72" t="n">
-        <v>1442136349.731315</v>
+        <v>1278082774.322786</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>0.142</v>
       </c>
       <c r="B73" t="n">
-        <v>1445.536791444483</v>
+        <v>1281.551303700824</v>
       </c>
       <c r="C73" t="n">
-        <v>1445536791.444483</v>
+        <v>1281551303.700824</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0.144</v>
       </c>
       <c r="B74" t="n">
-        <v>1448.897694048695</v>
+        <v>1284.980728226946</v>
       </c>
       <c r="C74" t="n">
-        <v>1448897694.048695</v>
+        <v>1284980728.226946</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0.146</v>
       </c>
       <c r="B75" t="n">
-        <v>1452.220055068381</v>
+        <v>1288.372020745607</v>
       </c>
       <c r="C75" t="n">
-        <v>1452220055.068381</v>
+        <v>1288372020.745607</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0.148</v>
       </c>
       <c r="B76" t="n">
-        <v>1455.504833661987</v>
+        <v>1291.726117023496</v>
       </c>
       <c r="C76" t="n">
-        <v>1455504833.661987</v>
+        <v>1291726117.023496</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0.15</v>
       </c>
       <c r="B77" t="n">
-        <v>1458.75295259167</v>
+        <v>1295.043917640267</v>
       </c>
       <c r="C77" t="n">
-        <v>1458752952.59167</v>
+        <v>1295043917.640267</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>0.152</v>
       </c>
       <c r="B78" t="n">
-        <v>1461.965300067171</v>
+        <v>1298.326289759143</v>
       </c>
       <c r="C78" t="n">
-        <v>1461965300.067171</v>
+        <v>1298326289.759143</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0.154</v>
       </c>
       <c r="B79" t="n">
-        <v>1465.142731473442</v>
+        <v>1301.574068786493</v>
       </c>
       <c r="C79" t="n">
-        <v>1465142731.473442</v>
+        <v>1301574068.786493</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0.156</v>
       </c>
       <c r="B80" t="n">
-        <v>1468.286070990762</v>
+        <v>1304.788059928681</v>
       </c>
       <c r="C80" t="n">
-        <v>1468286070.990762</v>
+        <v>1304788059.928681</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0.158</v>
       </c>
       <c r="B81" t="n">
-        <v>1471.396113115303</v>
+        <v>1307.96903965378</v>
       </c>
       <c r="C81" t="n">
-        <v>1471396113.115304</v>
+        <v>1307969039.65378</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0.16</v>
       </c>
       <c r="B82" t="n">
-        <v>1474.473624087449</v>
+        <v>1311.117757065067</v>
       </c>
       <c r="C82" t="n">
-        <v>1474473624.08745</v>
+        <v>1311117757.065067</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0.162</v>
       </c>
       <c r="B83" t="n">
-        <v>1477.519343234529</v>
+        <v>1314.234935192677</v>
       </c>
       <c r="C83" t="n">
-        <v>1477519343.234529</v>
+        <v>1314234935.192677</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0.164</v>
       </c>
       <c r="B84" t="n">
-        <v>1480.53398423408</v>
+        <v>1317.321272209209</v>
       </c>
       <c r="C84" t="n">
-        <v>1480533984.23408</v>
+        <v>1317321272.209209</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0.166</v>
       </c>
       <c r="B85" t="n">
-        <v>1483.518236303256</v>
+        <v>1320.377442574647</v>
       </c>
       <c r="C85" t="n">
-        <v>1483518236.303256</v>
+        <v>1320377442.574647</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>0.168</v>
       </c>
       <c r="B86" t="n">
-        <v>1486.472765319517</v>
+        <v>1323.404098115489</v>
       </c>
       <c r="C86" t="n">
-        <v>1486472765.319517</v>
+        <v>1323404098.115489</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0.17</v>
       </c>
       <c r="B87" t="n">
-        <v>1489.398214877345</v>
+        <v>1326.401869042602</v>
       </c>
       <c r="C87" t="n">
-        <v>1489398214.877345</v>
+        <v>1326401869.042602</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0.172</v>
       </c>
       <c r="B88" t="n">
-        <v>1492.295207285337</v>
+        <v>1329.371364911962</v>
       </c>
       <c r="C88" t="n">
-        <v>1492295207.285337</v>
+        <v>1329371364.911962</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0.174</v>
       </c>
       <c r="B89" t="n">
-        <v>1495.164344507697</v>
+        <v>1332.313175532091</v>
       </c>
       <c r="C89" t="n">
-        <v>1495164344.507697</v>
+        <v>1332313175.532091</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0.176</v>
       </c>
       <c r="B90" t="n">
-        <v>1498.006209053811</v>
+        <v>1335.227871821743</v>
       </c>
       <c r="C90" t="n">
-        <v>1498006209.053811</v>
+        <v>1335227871.821743</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>0.178</v>
       </c>
       <c r="B91" t="n">
-        <v>1500.821364819335</v>
+        <v>1338.116006621078</v>
       </c>
       <c r="C91" t="n">
-        <v>1500821364.819335</v>
+        <v>1338116006.621078</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0.18</v>
       </c>
       <c r="B92" t="n">
-        <v>1503.610357881947</v>
+        <v>1340.978115459345</v>
       </c>
       <c r="C92" t="n">
-        <v>1503610357.881947</v>
+        <v>1340978115.459345</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0.182</v>
       </c>
       <c r="B93" t="n">
-        <v>1506.373717254673</v>
+        <v>1343.814717281869</v>
       </c>
       <c r="C93" t="n">
-        <v>1506373717.254673</v>
+        <v>1343814717.281869</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0.184</v>
       </c>
       <c r="B94" t="n">
-        <v>1509.111955599496</v>
+        <v>1346.626315138898</v>
       </c>
       <c r="C94" t="n">
-        <v>1509111955.599496</v>
+        <v>1346626315.138898</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0.186</v>
       </c>
       <c r="B95" t="n">
-        <v>1511.825569903744</v>
+        <v>1349.413396838718</v>
       </c>
       <c r="C95" t="n">
-        <v>1511825569.903744</v>
+        <v>1349413396.838718</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0.188</v>
       </c>
       <c r="B96" t="n">
-        <v>1514.515042121571</v>
+        <v>1352.176435567254</v>
       </c>
       <c r="C96" t="n">
-        <v>1514515042.121572</v>
+        <v>1352176435.567255</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0.19</v>
       </c>
       <c r="B97" t="n">
-        <v>1517.180839782696</v>
+        <v>1354.915890476192</v>
       </c>
       <c r="C97" t="n">
-        <v>1517180839.782696</v>
+        <v>1354915890.476192</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0.192</v>
       </c>
       <c r="B98" t="n">
-        <v>1519.823416570373</v>
+        <v>1357.632207241555</v>
       </c>
       <c r="C98" t="n">
-        <v>1519823416.570373</v>
+        <v>1357632207.241555</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0.194</v>
       </c>
       <c r="B99" t="n">
-        <v>1522.443212870475</v>
+        <v>1360.325818594498</v>
       </c>
       <c r="C99" t="n">
-        <v>1522443212.870475</v>
+        <v>1360325818.594498</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0.196</v>
       </c>
       <c r="B100" t="n">
-        <v>1525.040656293399</v>
+        <v>1362.997144825973</v>
       </c>
       <c r="C100" t="n">
-        <v>1525040656.293399</v>
+        <v>1362997144.825973</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0.198</v>
       </c>
       <c r="B101" t="n">
-        <v>1527.616162170406</v>
+        <v>1365.646594266808</v>
       </c>
       <c r="C101" t="n">
-        <v>1527616162.170406</v>
+        <v>1365646594.266808</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>0.2</v>
       </c>
       <c r="B102" t="n">
-        <v>1530.170134025888</v>
+        <v>1368.274563744624</v>
       </c>
       <c r="C102" t="n">
-        <v>1530170134.025888</v>
+        <v>1368274563.744624</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>0.202</v>
       </c>
       <c r="B103" t="n">
-        <v>1532.702964026966</v>
+        <v>1370.881439018936</v>
       </c>
       <c r="C103" t="n">
-        <v>1532702964.026966</v>
+        <v>1370881439.018936</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>0.204</v>
       </c>
       <c r="B104" t="n">
-        <v>1535.215033411709</v>
+        <v>1373.467595195672</v>
       </c>
       <c r="C104" t="n">
-        <v>1535215033.411709</v>
+        <v>1373467595.195673</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>0.206</v>
       </c>
       <c r="B105" t="n">
-        <v>1537.706712897195</v>
+        <v>1376.033397122296</v>
       </c>
       <c r="C105" t="n">
-        <v>1537706712.897195</v>
+        <v>1376033397.122296</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>0.208</v>
       </c>
       <c r="B106" t="n">
-        <v>1540.178363068545</v>
+        <v>1378.579199764585</v>
       </c>
       <c r="C106" t="n">
-        <v>1540178363.068545</v>
+        <v>1378579199.764585</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>0.21</v>
       </c>
       <c r="B107" t="n">
-        <v>1542.630334749997</v>
+        <v>1381.105348566123</v>
       </c>
       <c r="C107" t="n">
-        <v>1542630334.749997</v>
+        <v>1381105348.566123</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>0.212</v>
       </c>
       <c r="B108" t="n">
-        <v>1545.062969358999</v>
+        <v>1383.612179791422</v>
       </c>
       <c r="C108" t="n">
-        <v>1545062969.358999</v>
+        <v>1383612179.791422</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>0.214</v>
       </c>
       <c r="B109" t="n">
-        <v>1547.476599244266</v>
+        <v>1386.100020853589</v>
       </c>
       <c r="C109" t="n">
-        <v>1547476599.244266</v>
+        <v>1386100020.853589</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>0.216</v>
       </c>
       <c r="B110" t="n">
-        <v>1549.871548008652</v>
+        <v>1388.569190627352</v>
       </c>
       <c r="C110" t="n">
-        <v>1549871548.008652</v>
+        <v>1388569190.627352</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>0.218</v>
       </c>
       <c r="B111" t="n">
-        <v>1552.24813081767</v>
+        <v>1391.019999748249</v>
       </c>
       <c r="C111" t="n">
-        <v>1552248130.81767</v>
+        <v>1391019999.748249</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>0.22</v>
       </c>
       <c r="B112" t="n">
-        <v>1554.606654694409</v>
+        <v>1393.452750898691</v>
       </c>
       <c r="C112" t="n">
-        <v>1554606654.694409</v>
+        <v>1393452750.898691</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>0.222</v>
       </c>
       <c r="B113" t="n">
-        <v>1556.947418801569</v>
+        <v>1395.867739081602</v>
       </c>
       <c r="C113" t="n">
-        <v>1556947418.801569</v>
+        <v>1395867739.081602</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>0.224</v>
       </c>
       <c r="B114" t="n">
-        <v>1559.270714711298</v>
+        <v>1398.26525188228</v>
       </c>
       <c r="C114" t="n">
-        <v>1559270714.711298</v>
+        <v>1398265251.88228</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0.226</v>
       </c>
       <c r="B115" t="n">
-        <v>1561.576826663443</v>
+        <v>1400.645569719081</v>
       </c>
       <c r="C115" t="n">
-        <v>1561576826.663443</v>
+        <v>1400645569.719081</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0.228</v>
       </c>
       <c r="B116" t="n">
-        <v>1563.866031812822</v>
+        <v>1403.008966083501</v>
       </c>
       <c r="C116" t="n">
-        <v>1563866031.812822</v>
+        <v>1403008966.083501</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0.23</v>
       </c>
       <c r="B117" t="n">
-        <v>1566.138600466081</v>
+        <v>1405.355707770193</v>
       </c>
       <c r="C117" t="n">
-        <v>1566138600.466081</v>
+        <v>1405355707.770193</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0.232</v>
       </c>
       <c r="B118" t="n">
-        <v>1568.394796308642</v>
+        <v>1407.686055097422</v>
       </c>
       <c r="C118" t="n">
-        <v>1568394796.308642</v>
+        <v>1407686055.097422</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0.234</v>
       </c>
       <c r="B119" t="n">
-        <v>1570.634876622257</v>
+        <v>1410.000262118437</v>
       </c>
       <c r="C119" t="n">
-        <v>1570634876.622257</v>
+        <v>1410000262.118437</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>0.236</v>
       </c>
       <c r="B120" t="n">
-        <v>1572.859092493623</v>
+        <v>1412.298576824209</v>
       </c>
       <c r="C120" t="n">
-        <v>1572859092.493623</v>
+        <v>1412298576.824209</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>0.238</v>
       </c>
       <c r="B121" t="n">
-        <v>1575.0676890145</v>
+        <v>1414.581241337949</v>
       </c>
       <c r="C121" t="n">
-        <v>1575067689.0145</v>
+        <v>1414581241.33795</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>0.24</v>
       </c>
       <c r="B122" t="n">
-        <v>1577.260905473748</v>
+        <v>1416.848492101816</v>
       </c>
       <c r="C122" t="n">
-        <v>1577260905.473748</v>
+        <v>1416848492.101816</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>0.242</v>
       </c>
       <c r="B123" t="n">
-        <v>1579.438975541668</v>
+        <v>1419.100560056187</v>
       </c>
       <c r="C123" t="n">
-        <v>1579438975.541668</v>
+        <v>1419100560.056187</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>0.244</v>
       </c>
       <c r="B124" t="n">
-        <v>1581.602127447026</v>
+        <v>1421.337670811837</v>
       </c>
       <c r="C124" t="n">
-        <v>1581602127.447026</v>
+        <v>1421337670.811837</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>0.246</v>
       </c>
       <c r="B125" t="n">
-        <v>1583.750584147095</v>
+        <v>1423.560044815383</v>
       </c>
       <c r="C125" t="n">
-        <v>1583750584.147095</v>
+        <v>1423560044.815383</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>0.248</v>
       </c>
       <c r="B126" t="n">
-        <v>1585.884563491057</v>
+        <v>1425.767897508281</v>
       </c>
       <c r="C126" t="n">
-        <v>1585884563.491057</v>
+        <v>1425767897.508281</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>0.25</v>
       </c>
       <c r="B127" t="n">
-        <v>1588.004278377069</v>
+        <v>1427.961439479702</v>
       </c>
       <c r="C127" t="n">
-        <v>1588004278.377069</v>
+        <v>1427961439.479702</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>0.252</v>
       </c>
       <c r="B128" t="n">
-        <v>1590.109936903283</v>
+        <v>1430.140876613557</v>
       </c>
       <c r="C128" t="n">
-        <v>1590109936.903283</v>
+        <v>1430140876.613557</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>0.254</v>
       </c>
       <c r="B129" t="n">
-        <v>1592.201742513109</v>
+        <v>1432.306410229941</v>
       </c>
       <c r="C129" t="n">
-        <v>1592201742.513109</v>
+        <v>1432306410.229941</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>0.256</v>
       </c>
       <c r="B130" t="n">
-        <v>1594.279894134977</v>
+        <v>1434.458237221249</v>
       </c>
       <c r="C130" t="n">
-        <v>1594279894.134977</v>
+        <v>1434458237.221249</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>0.258</v>
       </c>
       <c r="B131" t="n">
-        <v>1596.34458631685</v>
+        <v>1436.596550183211</v>
       </c>
       <c r="C131" t="n">
-        <v>1596344586.31685</v>
+        <v>1436596550.183211</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>0.26</v>
       </c>
       <c r="B132" t="n">
-        <v>1598.396009355719</v>
+        <v>1438.72153754106</v>
       </c>
       <c r="C132" t="n">
-        <v>1598396009.355719</v>
+        <v>1438721537.54106</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>0.262</v>
       </c>
       <c r="B133" t="n">
-        <v>1600.434349422312</v>
+        <v>1440.833383671071</v>
       </c>
       <c r="C133" t="n">
-        <v>1600434349.422312</v>
+        <v>1440833383.671072</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>0.264</v>
       </c>
       <c r="B134" t="n">
-        <v>1602.459788681225</v>
+        <v>1442.932269017648</v>
       </c>
       <c r="C134" t="n">
-        <v>1602459788.681225</v>
+        <v>1442932269.017648</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>0.266</v>
       </c>
       <c r="B135" t="n">
-        <v>1604.472505406672</v>
+        <v>1445.018370206174</v>
       </c>
       <c r="C135" t="n">
-        <v>1604472505.406672</v>
+        <v>1445018370.206174</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>0.268</v>
       </c>
       <c r="B136" t="n">
-        <v>1606.472674094059</v>
+        <v>1447.09186015181</v>
       </c>
       <c r="C136" t="n">
-        <v>1606472674.094059</v>
+        <v>1447091860.15181</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>0.27</v>
       </c>
       <c r="B137" t="n">
-        <v>1608.460465567541</v>
+        <v>1449.152908164393</v>
       </c>
       <c r="C137" t="n">
-        <v>1608460465.567541</v>
+        <v>1449152908.164393</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>0.272</v>
       </c>
       <c r="B138" t="n">
-        <v>1610.436047083757</v>
+        <v>1451.201680049633</v>
       </c>
       <c r="C138" t="n">
-        <v>1610436047.083757</v>
+        <v>1451201680.049633</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>0.274</v>
       </c>
       <c r="B139" t="n">
-        <v>1612.399582431892</v>
+        <v>1453.238338206739</v>
       </c>
       <c r="C139" t="n">
-        <v>1612399582.431891</v>
+        <v>1453238338.206739</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>0.276</v>
       </c>
       <c r="B140" t="n">
-        <v>1614.351232030226</v>
+        <v>1455.263041722642</v>
       </c>
       <c r="C140" t="n">
-        <v>1614351232.030226</v>
+        <v>1455263041.722642</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>0.278</v>
       </c>
       <c r="B141" t="n">
-        <v>1616.291153019324</v>
+        <v>1457.275946462947</v>
       </c>
       <c r="C141" t="n">
-        <v>1616291153.019324</v>
+        <v>1457275946.462947</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>0.28</v>
       </c>
       <c r="B142" t="n">
-        <v>1618.219499351986</v>
+        <v>1459.277205159758</v>
       </c>
       <c r="C142" t="n">
-        <v>1618219499.351986</v>
+        <v>1459277205.159758</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>0.282</v>
       </c>
       <c r="B143" t="n">
-        <v>1620.136421880127</v>
+        <v>1461.2669674965</v>
       </c>
       <c r="C143" t="n">
-        <v>1620136421.880127</v>
+        <v>1461266967.4965</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>0.284</v>
       </c>
       <c r="B144" t="n">
-        <v>1622.042068438672</v>
+        <v>1463.245380189861</v>
       </c>
       <c r="C144" t="n">
-        <v>1622042068.438673</v>
+        <v>1463245380.189861</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>0.286</v>
       </c>
       <c r="B145" t="n">
-        <v>1623.936583926628</v>
+        <v>1465.212587068972</v>
       </c>
       <c r="C145" t="n">
-        <v>1623936583.926628</v>
+        <v>1465212587.068972</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>0.288</v>
       </c>
       <c r="B146" t="n">
-        <v>1625.820110385411</v>
+        <v>1467.168729151943</v>
       </c>
       <c r="C146" t="n">
-        <v>1625820110.385411</v>
+        <v>1467168729.151943</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>0.29</v>
       </c>
       <c r="B147" t="n">
-        <v>1627.692787074569</v>
+        <v>1469.113944719847</v>
       </c>
       <c r="C147" t="n">
-        <v>1627692787.074569</v>
+        <v>1469113944.719847</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>0.292</v>
       </c>
       <c r="B148" t="n">
-        <v>1629.554750544991</v>
+        <v>1471.048369388272</v>
       </c>
       <c r="C148" t="n">
-        <v>1629554750.544991</v>
+        <v>1471048369.388273</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>0.294</v>
       </c>
       <c r="B149" t="n">
-        <v>1631.406134709691</v>
+        <v>1472.972136176518</v>
       </c>
       <c r="C149" t="n">
-        <v>1631406134.709691</v>
+        <v>1472972136.176517</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>0.296</v>
       </c>
       <c r="B150" t="n">
-        <v>1633.247070912294</v>
+        <v>1474.885375574545</v>
       </c>
       <c r="C150" t="n">
-        <v>1633247070.912294</v>
+        <v>1474885375.574545</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>0.298</v>
       </c>
       <c r="B151" t="n">
-        <v>1635.077687993282</v>
+        <v>1476.78821560776</v>
       </c>
       <c r="C151" t="n">
-        <v>1635077687.993282</v>
+        <v>1476788215.60776</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>0.3</v>
       </c>
       <c r="B152" t="n">
-        <v>1636.898112354102</v>
+        <v>1478.680781899717</v>
       </c>
       <c r="C152" t="n">
-        <v>1636898112.354102</v>
+        <v>1478680781.899717</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>0.302</v>
       </c>
       <c r="B153" t="n">
-        <v>1638.708468019226</v>
+        <v>1480.56319773282</v>
       </c>
       <c r="C153" t="n">
-        <v>1638708468.019226</v>
+        <v>1480563197.73282</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>0.304</v>
       </c>
       <c r="B154" t="n">
-        <v>1640.508876696225</v>
+        <v>1482.435584107097</v>
       </c>
       <c r="C154" t="n">
-        <v>1640508876.696225</v>
+        <v>1482435584.107097</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>0.306</v>
       </c>
       <c r="B155" t="n">
-        <v>1642.29945783394</v>
+        <v>1484.298059797129</v>
       </c>
       <c r="C155" t="n">
-        <v>1642299457.83394</v>
+        <v>1484298059.797129</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>0.308</v>
       </c>
       <c r="B156" t="n">
-        <v>1644.080328678833</v>
+        <v>1486.150741407197</v>
       </c>
       <c r="C156" t="n">
-        <v>1644080328.678833</v>
+        <v>1486150741.407197</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>0.31</v>
       </c>
       <c r="B157" t="n">
-        <v>1645.851604329566</v>
+        <v>1487.993743424707</v>
       </c>
       <c r="C157" t="n">
-        <v>1645851604.329566</v>
+        <v>1487993743.424707</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>0.312</v>
       </c>
       <c r="B158" t="n">
-        <v>1647.613397789894</v>
+        <v>1489.82717827198</v>
       </c>
       <c r="C158" t="n">
-        <v>1647613397.789894</v>
+        <v>1489827178.27198</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>0.314</v>
       </c>
       <c r="B159" t="n">
-        <v>1649.365820019921</v>
+        <v>1491.651156356436</v>
       </c>
       <c r="C159" t="n">
-        <v>1649365820.019921</v>
+        <v>1491651156.356436</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>0.316</v>
       </c>
       <c r="B160" t="n">
-        <v>1651.108979985784</v>
+        <v>1493.465786119259</v>
       </c>
       <c r="C160" t="n">
-        <v>1651108979.985784</v>
+        <v>1493465786.119259</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>0.318</v>
       </c>
       <c r="B161" t="n">
-        <v>1652.842984707832</v>
+        <v>1495.271174082583</v>
       </c>
       <c r="C161" t="n">
-        <v>1652842984.707832</v>
+        <v>1495271174.082583</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>0.32</v>
       </c>
       <c r="B162" t="n">
-        <v>1654.567939307332</v>
+        <v>1497.067424895259</v>
       </c>
       <c r="C162" t="n">
-        <v>1654567939.307332</v>
+        <v>1497067424.895259</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>0.322</v>
       </c>
       <c r="B163" t="n">
-        <v>1656.283947051788</v>
+        <v>1498.854641377253</v>
       </c>
       <c r="C163" t="n">
-        <v>1656283947.051788</v>
+        <v>1498854641.377253</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>0.324</v>
       </c>
       <c r="B164" t="n">
-        <v>1657.991109398886</v>
+        <v>1500.632924562717</v>
       </c>
       <c r="C164" t="n">
-        <v>1657991109.398886</v>
+        <v>1500632924.562717</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>0.326</v>
       </c>
       <c r="B165" t="n">
-        <v>1659.68952603915</v>
+        <v>1502.4023737418</v>
       </c>
       <c r="C165" t="n">
-        <v>1659689526.03915</v>
+        <v>1502402373.7418</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>0.328</v>
       </c>
       <c r="B166" t="n">
-        <v>1661.379294937328</v>
+        <v>1504.163086501217</v>
       </c>
       <c r="C166" t="n">
-        <v>1661379294.937328</v>
+        <v>1504163086.501217</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>0.33</v>
       </c>
       <c r="B167" t="n">
-        <v>1663.060512372567</v>
+        <v>1505.915158763641</v>
       </c>
       <c r="C167" t="n">
-        <v>1663060512.372567</v>
+        <v>1505915158.763641</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>0.332</v>
       </c>
       <c r="B168" t="n">
-        <v>1664.733272977413</v>
+        <v>1507.658684825952</v>
       </c>
       <c r="C168" t="n">
-        <v>1664733272.977413</v>
+        <v>1507658684.825952</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>0.334</v>
       </c>
       <c r="B169" t="n">
-        <v>1666.397669775687</v>
+        <v>1509.393757396382</v>
       </c>
       <c r="C169" t="n">
-        <v>1666397669.775687</v>
+        <v>1509393757.396382</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>0.336</v>
       </c>
       <c r="B170" t="n">
-        <v>1668.05379421926</v>
+        <v>1511.120467630591</v>
       </c>
       <c r="C170" t="n">
-        <v>1668053794.21926</v>
+        <v>1511120467.630591</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>0.338</v>
       </c>
       <c r="B171" t="n">
-        <v>1669.701736223781</v>
+        <v>1512.838905166719</v>
       </c>
       <c r="C171" t="n">
-        <v>1669701736.223781</v>
+        <v>1512838905.166719</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>0.34</v>
       </c>
       <c r="B172" t="n">
-        <v>1671.341584203385</v>
+        <v>1514.549158159443</v>
       </c>
       <c r="C172" t="n">
-        <v>1671341584.203385</v>
+        <v>1514549158.159443</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>0.342</v>
       </c>
       <c r="B173" t="n">
-        <v>1672.973425104415</v>
+        <v>1516.251313313079</v>
       </c>
       <c r="C173" t="n">
-        <v>1672973425.104415</v>
+        <v>1516251313.313079</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>0.344</v>
       </c>
       <c r="B174" t="n">
-        <v>1674.597344438201</v>
+        <v>1517.945455913746</v>
       </c>
       <c r="C174" t="n">
-        <v>1674597344.438201</v>
+        <v>1517945455.913746</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>0.346</v>
       </c>
       <c r="B175" t="n">
-        <v>1676.213426312917</v>
+        <v>1519.631669860648</v>
       </c>
       <c r="C175" t="n">
-        <v>1676213426.312917</v>
+        <v>1519631669.860648</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>0.348</v>
       </c>
       <c r="B176" t="n">
-        <v>1677.821753464551</v>
+        <v>1521.310037696478</v>
       </c>
       <c r="C176" t="n">
-        <v>1677821753.464551</v>
+        <v>1521310037.696478</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>0.35</v>
       </c>
       <c r="B177" t="n">
-        <v>1679.42240728702</v>
+        <v>1522.980640636996</v>
       </c>
       <c r="C177" t="n">
-        <v>1679422407.28702</v>
+        <v>1522980640.636996</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>0.352</v>
       </c>
       <c r="B178" t="n">
-        <v>1681.015467861456</v>
+        <v>1524.643558599788</v>
       </c>
       <c r="C178" t="n">
-        <v>1681015467.861456</v>
+        <v>1524643558.599788</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>0.354</v>
       </c>
       <c r="B179" t="n">
-        <v>1682.60101398469</v>
+        <v>1526.298870232247</v>
       </c>
       <c r="C179" t="n">
-        <v>1682601013.98469</v>
+        <v>1526298870.232247</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>0.356</v>
       </c>
       <c r="B180" t="n">
-        <v>1684.179123196964</v>
+        <v>1527.946652938799</v>
       </c>
       <c r="C180" t="n">
-        <v>1684179123.196964</v>
+        <v>1527946652.938799</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>0.358</v>
       </c>
       <c r="B181" t="n">
-        <v>1685.749871808887</v>
+        <v>1529.58698290739</v>
       </c>
       <c r="C181" t="n">
-        <v>1685749871.808887</v>
+        <v>1529586982.90739</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>0.36</v>
       </c>
       <c r="B182" t="n">
-        <v>1687.313334927673</v>
+        <v>1531.219935135269</v>
       </c>
       <c r="C182" t="n">
-        <v>1687313334.927673</v>
+        <v>1531219935.135269</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>0.362</v>
       </c>
       <c r="B183" t="n">
-        <v>1688.869586482673</v>
+        <v>1532.845583454088</v>
       </c>
       <c r="C183" t="n">
-        <v>1688869586.482672</v>
+        <v>1532845583.454087</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>0.364</v>
       </c>
       <c r="B184" t="n">
-        <v>1690.418699250227</v>
+        <v>1534.464000554324</v>
       </c>
       <c r="C184" t="n">
-        <v>1690418699.250227</v>
+        <v>1534464000.554323</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>0.366</v>
       </c>
       <c r="B185" t="n">
-        <v>1691.960744877863</v>
+        <v>1536.075258009077</v>
       </c>
       <c r="C185" t="n">
-        <v>1691960744.877863</v>
+        <v>1536075258.009077</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>0.368</v>
       </c>
       <c r="B186" t="n">
-        <v>1693.495793907855</v>
+        <v>1537.679426297233</v>
       </c>
       <c r="C186" t="n">
-        <v>1693495793.907855</v>
+        <v>1537679426.297233</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>0.37</v>
       </c>
       <c r="B187" t="n">
-        <v>1695.023915800165</v>
+        <v>1539.276574826022</v>
       </c>
       <c r="C187" t="n">
-        <v>1695023915.800165</v>
+        <v>1539276574.826022</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>0.372</v>
       </c>
       <c r="B188" t="n">
-        <v>1696.545178954788</v>
+        <v>1540.866771953005</v>
       </c>
       <c r="C188" t="n">
-        <v>1696545178.954788</v>
+        <v>1540866771.953005</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>0.374</v>
       </c>
       <c r="B189" t="n">
-        <v>1698.059650733521</v>
+        <v>1542.450085007478</v>
       </c>
       <c r="C189" t="n">
-        <v>1698059650.733521</v>
+        <v>1542450085.007478</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>0.376</v>
       </c>
       <c r="B190" t="n">
-        <v>1699.567397481169</v>
+        <v>1544.026580311342</v>
       </c>
       <c r="C190" t="n">
-        <v>1699567397.481169</v>
+        <v>1544026580.311342</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>0.378</v>
       </c>
       <c r="B191" t="n">
-        <v>1701.068484546203</v>
+        <v>1545.596323199431</v>
       </c>
       <c r="C191" t="n">
-        <v>1701068484.546203</v>
+        <v>1545596323.199431</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>0.38</v>
       </c>
       <c r="B192" t="n">
-        <v>1702.562976300906</v>
+        <v>1547.159378039332</v>
       </c>
       <c r="C192" t="n">
-        <v>1702562976.300905</v>
+        <v>1547159378.039332</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>0.382</v>
       </c>
       <c r="B193" t="n">
-        <v>1704.050936160988</v>
+        <v>1548.7158082507</v>
       </c>
       <c r="C193" t="n">
-        <v>1704050936.160988</v>
+        <v>1548715808.2507</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>0.384</v>
       </c>
       <c r="B194" t="n">
-        <v>1705.532426604727</v>
+        <v>1550.265676324091</v>
       </c>
       <c r="C194" t="n">
-        <v>1705532426.604727</v>
+        <v>1550265676.324091</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>0.386</v>
       </c>
       <c r="B195" t="n">
-        <v>1707.007509191614</v>
+        <v>1551.809043839326</v>
       </c>
       <c r="C195" t="n">
-        <v>1707007509.191614</v>
+        <v>1551809043.839326</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>0.388</v>
       </c>
       <c r="B196" t="n">
-        <v>1708.476244580539</v>
+        <v>1553.345971483394</v>
       </c>
       <c r="C196" t="n">
-        <v>1708476244.580539</v>
+        <v>1553345971.483394</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>0.39</v>
       </c>
       <c r="B197" t="n">
-        <v>1709.938692547529</v>
+        <v>1554.876519067922</v>
       </c>
       <c r="C197" t="n">
-        <v>1709938692.547529</v>
+        <v>1554876519.067922</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>0.392</v>
       </c>
       <c r="B198" t="n">
-        <v>1711.39491200304</v>
+        <v>1556.400745546205</v>
       </c>
       <c r="C198" t="n">
-        <v>1711394912.00304</v>
+        <v>1556400745.546205</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>0.394</v>
       </c>
       <c r="B199" t="n">
-        <v>1712.844961008829</v>
+        <v>1557.918709029829</v>
       </c>
       <c r="C199" t="n">
-        <v>1712844961.008829</v>
+        <v>1557918709.02983</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>0.396</v>
       </c>
       <c r="B200" t="n">
-        <v>1714.288896794417</v>
+        <v>1559.430466804884</v>
       </c>
       <c r="C200" t="n">
-        <v>1714288896.794417</v>
+        <v>1559430466.804884</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>0.398</v>
       </c>
       <c r="B201" t="n">
-        <v>1715.726775773139</v>
+        <v>1560.936075347785</v>
       </c>
       <c r="C201" t="n">
-        <v>1715726775.773139</v>
+        <v>1560936075.347785</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>0.4</v>
       </c>
       <c r="B202" t="n">
-        <v>1717.158653557819</v>
+        <v>1562.435590340716</v>
       </c>
       <c r="C202" t="n">
-        <v>1717158653.557819</v>
+        <v>1562435590.340716</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>0.402</v>
       </c>
       <c r="B203" t="n">
-        <v>1718.584584976062</v>
+        <v>1563.929066686699</v>
       </c>
       <c r="C203" t="n">
-        <v>1718584584.976062</v>
+        <v>1563929066.686699</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>0.404</v>
       </c>
       <c r="B204" t="n">
-        <v>1720.004624085178</v>
+        <v>1565.416558524308</v>
       </c>
       <c r="C204" t="n">
-        <v>1720004624.085177</v>
+        <v>1565416558.524308</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>0.406</v>
       </c>
       <c r="B205" t="n">
-        <v>1721.418824186748</v>
+        <v>1566.898119242031</v>
       </c>
       <c r="C205" t="n">
-        <v>1721418824.186748</v>
+        <v>1566898119.242031</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>0.408</v>
       </c>
       <c r="B206" t="n">
-        <v>1722.827237840857</v>
+        <v>1568.373801492292</v>
       </c>
       <c r="C206" t="n">
-        <v>1722827237.840857</v>
+        <v>1568373801.492292</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>0.41</v>
       </c>
       <c r="B207" t="n">
-        <v>1724.229916879973</v>
+        <v>1569.843657205151</v>
       </c>
       <c r="C207" t="n">
-        <v>1724229916.879973</v>
+        <v>1569843657.205151</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>0.412</v>
       </c>
       <c r="B208" t="n">
-        <v>1725.626912422512</v>
+        <v>1571.307737601674</v>
       </c>
       <c r="C208" t="n">
-        <v>1725626912.422512</v>
+        <v>1571307737.601674</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>0.414</v>
       </c>
       <c r="B209" t="n">
-        <v>1727.018274886082</v>
+        <v>1572.766093206996</v>
       </c>
       <c r="C209" t="n">
-        <v>1727018274.886082</v>
+        <v>1572766093.206996</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>0.416</v>
       </c>
       <c r="B210" t="n">
-        <v>1728.404054000421</v>
+        <v>1574.218773863084</v>
       </c>
       <c r="C210" t="n">
-        <v>1728404054.000421</v>
+        <v>1574218773.863084</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>0.418</v>
       </c>
       <c r="B211" t="n">
-        <v>1729.78429882003</v>
+        <v>1575.665828741204</v>
       </c>
       <c r="C211" t="n">
-        <v>1729784298.82003</v>
+        <v>1575665828.741205</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>0.42</v>
       </c>
       <c r="B212" t="n">
-        <v>1731.15905773652</v>
+        <v>1577.1073063541</v>
       </c>
       <c r="C212" t="n">
-        <v>1731159057.736521</v>
+        <v>1577107306.3541</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>0.422</v>
       </c>
       <c r="B213" t="n">
-        <v>1732.528378490675</v>
+        <v>1578.543254567899</v>
       </c>
       <c r="C213" t="n">
-        <v>1732528378.490675</v>
+        <v>1578543254.567899</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>0.424</v>
       </c>
       <c r="B214" t="n">
-        <v>1733.892308184236</v>
+        <v>1579.97372061374</v>
       </c>
       <c r="C214" t="n">
-        <v>1733892308.184236</v>
+        <v>1579973720.61374</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>0.426</v>
       </c>
       <c r="B215" t="n">
-        <v>1735.250893291421</v>
+        <v>1581.39875109915</v>
       </c>
       <c r="C215" t="n">
-        <v>1735250893.291421</v>
+        <v>1581398751.09915</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>0.428</v>
       </c>
       <c r="B216" t="n">
-        <v>1736.604179670183</v>
+        <v>1582.818392019151</v>
       </c>
       <c r="C216" t="n">
-        <v>1736604179.670183</v>
+        <v>1582818392.019151</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>0.43</v>
       </c>
       <c r="B217" t="n">
-        <v>1737.952212573215</v>
+        <v>1584.232688767131</v>
       </c>
       <c r="C217" t="n">
-        <v>1737952212.573215</v>
+        <v>1584232688.767131</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>0.432</v>
       </c>
       <c r="B218" t="n">
-        <v>1739.295036658709</v>
+        <v>1585.641686145459</v>
       </c>
       <c r="C218" t="n">
-        <v>1739295036.658709</v>
+        <v>1585641686.145459</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>0.434</v>
       </c>
       <c r="B219" t="n">
-        <v>1740.632696000868</v>
+        <v>1587.045428375881</v>
       </c>
       <c r="C219" t="n">
-        <v>1740632696.000868</v>
+        <v>1587045428.375881</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>0.436</v>
       </c>
       <c r="B220" t="n">
-        <v>1741.9652341002</v>
+        <v>1588.443959109671</v>
       </c>
       <c r="C220" t="n">
-        <v>1741965234.1002</v>
+        <v>1588443959.109671</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>0.438</v>
       </c>
       <c r="B221" t="n">
-        <v>1743.292693893568</v>
+        <v>1589.837321437567</v>
       </c>
       <c r="C221" t="n">
-        <v>1743292693.893568</v>
+        <v>1589837321.437567</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>0.44</v>
       </c>
       <c r="B222" t="n">
-        <v>1744.615117764026</v>
+        <v>1591.22555789949</v>
       </c>
       <c r="C222" t="n">
-        <v>1744615117.764026</v>
+        <v>1591225557.89949</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>0.442</v>
       </c>
       <c r="B223" t="n">
-        <v>1745.932547550444</v>
+        <v>1592.608710494045</v>
       </c>
       <c r="C223" t="n">
-        <v>1745932547.550444</v>
+        <v>1592608710.494045</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>0.444</v>
       </c>
       <c r="B224" t="n">
-        <v>1747.245024556916</v>
+        <v>1593.986820687823</v>
       </c>
       <c r="C224" t="n">
-        <v>1747245024.556916</v>
+        <v>1593986820.687823</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>0.446</v>
       </c>
       <c r="B225" t="n">
-        <v>1748.552589561964</v>
+        <v>1595.359929424497</v>
       </c>
       <c r="C225" t="n">
-        <v>1748552589.561964</v>
+        <v>1595359929.424497</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>0.448</v>
       </c>
       <c r="B226" t="n">
-        <v>1749.855282827549</v>
+        <v>1596.728077133728</v>
       </c>
       <c r="C226" t="n">
-        <v>1749855282.827549</v>
+        <v>1596728077.133728</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>0.45</v>
       </c>
       <c r="B227" t="n">
-        <v>1751.153144107884</v>
+        <v>1598.091303739873</v>
       </c>
       <c r="C227" t="n">
-        <v>1751153144.107884</v>
+        <v>1598091303.739873</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>0.452</v>
       </c>
       <c r="B228" t="n">
-        <v>1752.446212658057</v>
+        <v>1599.449648670513</v>
       </c>
       <c r="C228" t="n">
-        <v>1752446212.658057</v>
+        <v>1599449648.670513</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>0.454</v>
       </c>
       <c r="B229" t="n">
-        <v>1753.734527242474</v>
+        <v>1600.803150864801</v>
       </c>
       <c r="C229" t="n">
-        <v>1753734527.242474</v>
+        <v>1600803150.8648</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>0.456</v>
       </c>
       <c r="B230" t="n">
-        <v>1755.018126143119</v>
+        <v>1602.151848781625</v>
       </c>
       <c r="C230" t="n">
-        <v>1755018126.143119</v>
+        <v>1602151848.781626</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>0.458</v>
       </c>
       <c r="B231" t="n">
-        <v>1756.297047167644</v>
+        <v>1603.495780407615</v>
       </c>
       <c r="C231" t="n">
-        <v>1756297047.167644</v>
+        <v>1603495780.407614</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>0.46</v>
       </c>
       <c r="B232" t="n">
-        <v>1757.571327657281</v>
+        <v>1604.834983264962</v>
       </c>
       <c r="C232" t="n">
-        <v>1757571327.657281</v>
+        <v>1604834983.264962</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>0.462</v>
       </c>
       <c r="B233" t="n">
-        <v>1758.841004494598</v>
+        <v>1606.169494419097</v>
       </c>
       <c r="C233" t="n">
-        <v>1758841004.494598</v>
+        <v>1606169494.419097</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>0.464</v>
       </c>
       <c r="B234" t="n">
-        <v>1760.106114111087</v>
+        <v>1607.499350486187</v>
       </c>
       <c r="C234" t="n">
-        <v>1760106114.111087</v>
+        <v>1607499350.486187</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>0.466</v>
       </c>
       <c r="B235" t="n">
-        <v>1761.366692494594</v>
+        <v>1608.824587640497</v>
       </c>
       <c r="C235" t="n">
-        <v>1761366692.494594</v>
+        <v>1608824587.640497</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>0.468</v>
       </c>
       <c r="B236" t="n">
-        <v>1762.622775196597</v>
+        <v>1610.145241621585</v>
       </c>
       <c r="C236" t="n">
-        <v>1762622775.196597</v>
+        <v>1610145241.621585</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>0.47</v>
       </c>
       <c r="B237" t="n">
-        <v>1763.874397339337</v>
+        <v>1611.461347741362</v>
       </c>
       <c r="C237" t="n">
-        <v>1763874397.339337</v>
+        <v>1611461347.741363</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>0.472</v>
       </c>
       <c r="B238" t="n">
-        <v>1765.121593622798</v>
+        <v>1612.772940890996</v>
       </c>
       <c r="C238" t="n">
-        <v>1765121593.622798</v>
+        <v>1612772940.890996</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>0.474</v>
       </c>
       <c r="B239" t="n">
-        <v>1766.364398331546</v>
+        <v>1614.080055547684</v>
       </c>
       <c r="C239" t="n">
-        <v>1766364398.331546</v>
+        <v>1614080055.547684</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>0.476</v>
       </c>
       <c r="B240" t="n">
-        <v>1767.602845341427</v>
+        <v>1615.382725781287</v>
       </c>
       <c r="C240" t="n">
-        <v>1767602845.341427</v>
+        <v>1615382725.781287</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>0.478</v>
       </c>
       <c r="B241" t="n">
-        <v>1768.836968126139</v>
+        <v>1616.680985260824</v>
       </c>
       <c r="C241" t="n">
-        <v>1768836968.126139</v>
+        <v>1616680985.260824</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>0.48</v>
       </c>
       <c r="B242" t="n">
-        <v>1770.066799763654</v>
+        <v>1617.974867260845</v>
       </c>
       <c r="C242" t="n">
-        <v>1770066799.763654</v>
+        <v>1617974867.260845</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>0.482</v>
       </c>
       <c r="B243" t="n">
-        <v>1771.292372942529</v>
+        <v>1619.264404667672</v>
       </c>
       <c r="C243" t="n">
-        <v>1771292372.942529</v>
+        <v>1619264404.667672</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>0.484</v>
       </c>
       <c r="B244" t="n">
-        <v>1772.51371996808</v>
+        <v>1620.549629985512</v>
       </c>
       <c r="C244" t="n">
-        <v>1772513719.96808</v>
+        <v>1620549629.985512</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>0.486</v>
       </c>
       <c r="B245" t="n">
-        <v>1773.730872768435</v>
+        <v>1621.830575342459</v>
       </c>
       <c r="C245" t="n">
-        <v>1773730872.768435</v>
+        <v>1621830575.342459</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>0.488</v>
       </c>
       <c r="B246" t="n">
-        <v>1774.943862900469</v>
+        <v>1623.107272496369</v>
       </c>
       <c r="C246" t="n">
-        <v>1774943862.900469</v>
+        <v>1623107272.496369</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>0.49</v>
       </c>
       <c r="B247" t="n">
-        <v>1776.15272155562</v>
+        <v>1624.379752840621</v>
       </c>
       <c r="C247" t="n">
-        <v>1776152721.55562</v>
+        <v>1624379752.840621</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>0.492</v>
       </c>
       <c r="B248" t="n">
-        <v>1777.357479565593</v>
+        <v>1625.648047409767</v>
       </c>
       <c r="C248" t="n">
-        <v>1777357479.565593</v>
+        <v>1625648047.409767</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>0.494</v>
       </c>
       <c r="B249" t="n">
-        <v>1778.558167407945</v>
+        <v>1626.912186885074</v>
       </c>
       <c r="C249" t="n">
-        <v>1778558167.407945</v>
+        <v>1626912186.885074</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>0.496</v>
       </c>
       <c r="B250" t="n">
-        <v>1779.754815211575</v>
+        <v>1628.172201599953</v>
       </c>
       <c r="C250" t="n">
-        <v>1779754815.211575</v>
+        <v>1628172201.599953</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>0.498</v>
       </c>
       <c r="B251" t="n">
-        <v>1780.947452762089</v>
+        <v>1629.428121545286</v>
       </c>
       <c r="C251" t="n">
-        <v>1780947452.762089</v>
+        <v>1629428121.545286</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>0.5</v>
       </c>
       <c r="B252" t="n">
-        <v>1782.13610950708</v>
+        <v>1630.679976374653</v>
       </c>
       <c r="C252" t="n">
-        <v>1782136109.50708</v>
+        <v>1630679976.374653</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>0.505</v>
       </c>
       <c r="B253" t="n">
-        <v>1785.090525605473</v>
+        <v>1633.792020183503</v>
       </c>
       <c r="C253" t="n">
-        <v>1785090525.605473</v>
+        <v>1633792020.183503</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>0.51</v>
       </c>
       <c r="B254" t="n">
-        <v>1788.020688796692</v>
+        <v>1636.879288683438</v>
       </c>
       <c r="C254" t="n">
-        <v>1788020688.796692</v>
+        <v>1636879288.683438</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>0.515</v>
       </c>
       <c r="B255" t="n">
-        <v>1790.927032808974</v>
+        <v>1639.942218868315</v>
       </c>
       <c r="C255" t="n">
-        <v>1790927032.808975</v>
+        <v>1639942218.868315</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>0.52</v>
       </c>
       <c r="B256" t="n">
-        <v>1793.809979498836</v>
+        <v>1642.981235876934</v>
       </c>
       <c r="C256" t="n">
-        <v>1793809979.498836</v>
+        <v>1642981235.876934</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>0.525</v>
       </c>
       <c r="B257" t="n">
-        <v>1796.669939286501</v>
+        <v>1645.996753425006</v>
       </c>
       <c r="C257" t="n">
-        <v>1796669939.286501</v>
+        <v>1645996753.425006</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>0.53</v>
       </c>
       <c r="B258" t="n">
-        <v>1799.507311571382</v>
+        <v>1648.98917421744</v>
       </c>
       <c r="C258" t="n">
-        <v>1799507311.571382</v>
+        <v>1648989174.21744</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>0.535</v>
       </c>
       <c r="B259" t="n">
-        <v>1802.32248512871</v>
+        <v>1651.958890342015</v>
       </c>
       <c r="C259" t="n">
-        <v>1802322485.12871</v>
+        <v>1651958890.342015</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>0.54</v>
       </c>
       <c r="B260" t="n">
-        <v>1805.11583848833</v>
+        <v>1654.906283645448</v>
       </c>
       <c r="C260" t="n">
-        <v>1805115838.48833</v>
+        <v>1654906283.645447</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>0.545</v>
       </c>
       <c r="B261" t="n">
-        <v>1807.887740296625</v>
+        <v>1657.831726092793</v>
       </c>
       <c r="C261" t="n">
-        <v>1807887740.296625</v>
+        <v>1657831726.092793</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>0.55</v>
       </c>
       <c r="B262" t="n">
-        <v>1810.638549662471</v>
+        <v>1660.735580111075</v>
       </c>
       <c r="C262" t="n">
-        <v>1810638549.662471</v>
+        <v>1660735580.111075</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>0.555</v>
       </c>
       <c r="B263" t="n">
-        <v>1813.368616488057</v>
+        <v>1663.618198917954</v>
       </c>
       <c r="C263" t="n">
-        <v>1813368616.488057</v>
+        <v>1663618198.917954</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B264" t="n">
-        <v>1816.078281785364</v>
+        <v>1666.47992683623</v>
       </c>
       <c r="C264" t="n">
-        <v>1816078281.785364</v>
+        <v>1666479926.83623</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B265" t="n">
-        <v>1818.767877979059</v>
+        <v>1669.321099594903</v>
       </c>
       <c r="C265" t="n">
-        <v>1818767877.979059</v>
+        <v>1669321099.594903</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>0.57</v>
       </c>
       <c r="B266" t="n">
-        <v>1821.437729196481</v>
+        <v>1672.142044617485</v>
       </c>
       <c r="C266" t="n">
-        <v>1821437729.196481</v>
+        <v>1672142044.617485</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>0.575</v>
       </c>
       <c r="B267" t="n">
-        <v>1824.08815154539</v>
+        <v>1674.943081298199</v>
       </c>
       <c r="C267" t="n">
-        <v>1824088151.54539</v>
+        <v>1674943081.298199</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>0.58</v>
       </c>
       <c r="B268" t="n">
-        <v>1826.719453380102</v>
+        <v>1677.724521266688</v>
       </c>
       <c r="C268" t="n">
-        <v>1826719453.380102</v>
+        <v>1677724521.266688</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>0.585</v>
       </c>
       <c r="B269" t="n">
-        <v>1829.331935556573</v>
+        <v>1680.486668641795</v>
       </c>
       <c r="C269" t="n">
-        <v>1829331935.556573</v>
+        <v>1680486668.641795</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>0.59</v>
       </c>
       <c r="B270" t="n">
-        <v>1831.925891676998</v>
+        <v>1683.229820274968</v>
       </c>
       <c r="C270" t="n">
-        <v>1831925891.676998</v>
+        <v>1683229820.274967</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>0.595</v>
       </c>
       <c r="B271" t="n">
-        <v>1834.501608324434</v>
+        <v>1685.954265983772</v>
       </c>
       <c r="C271" t="n">
-        <v>1834501608.324434</v>
+        <v>1685954265.983772</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>0.6</v>
       </c>
       <c r="B272" t="n">
-        <v>1837.059365287931</v>
+        <v>1688.660288776028</v>
       </c>
       <c r="C272" t="n">
-        <v>1837059365.287931</v>
+        <v>1688660288.776028</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>0.605</v>
       </c>
       <c r="B273" t="n">
-        <v>1839.599435778639</v>
+        <v>1691.348165064995</v>
       </c>
       <c r="C273" t="n">
-        <v>1839599435.778639</v>
+        <v>1691348165.064995</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>0.61</v>
       </c>
       <c r="B274" t="n">
-        <v>1842.122086637314</v>
+        <v>1694.01816487604</v>
       </c>
       <c r="C274" t="n">
-        <v>1842122086.637314</v>
+        <v>1694018164.87604</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>0.615</v>
       </c>
       <c r="B275" t="n">
-        <v>1844.627578533644</v>
+        <v>1696.670552045202</v>
       </c>
       <c r="C275" t="n">
-        <v>1844627578.533644</v>
+        <v>1696670552.045202</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>0.62</v>
       </c>
       <c r="B276" t="n">
-        <v>1847.116166157766</v>
+        <v>1699.305584410021</v>
       </c>
       <c r="C276" t="n">
-        <v>1847116166.157766</v>
+        <v>1699305584.410021</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>0.625</v>
       </c>
       <c r="B277" t="n">
-        <v>1849.588098404358</v>
+        <v>1701.923513992995</v>
       </c>
       <c r="C277" t="n">
-        <v>1849588098.404358</v>
+        <v>1701923513.992995</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>0.63</v>
       </c>
       <c r="B278" t="n">
-        <v>1852.043618549633</v>
+        <v>1704.524587178021</v>
       </c>
       <c r="C278" t="n">
-        <v>1852043618.549633</v>
+        <v>1704524587.178021</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>0.635</v>
       </c>
       <c r="B279" t="n">
-        <v>1854.482964421582</v>
+        <v>1707.109044880119</v>
       </c>
       <c r="C279" t="n">
-        <v>1854482964.421582</v>
+        <v>1707109044.880119</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>0.64</v>
       </c>
       <c r="B280" t="n">
-        <v>1856.906368563753</v>
+        <v>1709.677122708757</v>
       </c>
       <c r="C280" t="n">
-        <v>1856906368.563753</v>
+        <v>1709677122.708757</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>0.645</v>
       </c>
       <c r="B281" t="n">
-        <v>1859.314058392879</v>
+        <v>1712.229051125074</v>
       </c>
       <c r="C281" t="n">
-        <v>1859314058.392879</v>
+        <v>1712229051.125074</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>0.65</v>
       </c>
       <c r="B282" t="n">
-        <v>1861.706256350617</v>
+        <v>1714.765055593257</v>
       </c>
       <c r="C282" t="n">
-        <v>1861706256.350616</v>
+        <v>1714765055.593257</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>0.655</v>
       </c>
       <c r="B283" t="n">
-        <v>1864.08318004967</v>
+        <v>1717.285356726342</v>
       </c>
       <c r="C283" t="n">
-        <v>1864083180.04967</v>
+        <v>1717285356.726342</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>0.66</v>
       </c>
       <c r="B284" t="n">
-        <v>1866.445042414542</v>
+        <v>1719.790170426693</v>
       </c>
       <c r="C284" t="n">
-        <v>1866445042.414542</v>
+        <v>1719790170.426693</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>0.665</v>
       </c>
       <c r="B285" t="n">
-        <v>1868.792051817155</v>
+        <v>1722.279708021373</v>
       </c>
       <c r="C285" t="n">
-        <v>1868792051.817155</v>
+        <v>1722279708.021373</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>0.67</v>
       </c>
       <c r="B286" t="n">
-        <v>1871.124412207559</v>
+        <v>1724.754176392644</v>
       </c>
       <c r="C286" t="n">
-        <v>1871124412.207559</v>
+        <v>1724754176.392644</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>0.675</v>
       </c>
       <c r="B287" t="n">
-        <v>1873.442323239939</v>
+        <v>1727.213778103806</v>
       </c>
       <c r="C287" t="n">
-        <v>1873442323.239939</v>
+        <v>1727213778.103806</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>0.68</v>
       </c>
       <c r="B288" t="n">
-        <v>1875.745980394143</v>
+        <v>1729.658711520565</v>
       </c>
       <c r="C288" t="n">
-        <v>1875745980.394143</v>
+        <v>1729658711.520565</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B289" t="n">
-        <v>1878.035575092887</v>
+        <v>1732.089170928132</v>
       </c>
       <c r="C289" t="n">
-        <v>1878035575.092887</v>
+        <v>1732089170.928132</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B290" t="n">
-        <v>1880.311294814855</v>
+        <v>1734.50534664422</v>
       </c>
       <c r="C290" t="n">
-        <v>1880311294.814855</v>
+        <v>1734505346.64422</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>0.695</v>
       </c>
       <c r="B291" t="n">
-        <v>1882.573323203852</v>
+        <v>1736.907425128129</v>
       </c>
       <c r="C291" t="n">
-        <v>1882573323.203852</v>
+        <v>1736907425.128129</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>0.7</v>
       </c>
       <c r="B292" t="n">
-        <v>1884.821840174165</v>
+        <v>1739.295589086059</v>
       </c>
       <c r="C292" t="n">
-        <v>1884821840.174165</v>
+        <v>1739295589.086059</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>0.705</v>
       </c>
       <c r="B293" t="n">
-        <v>1887.05702201231</v>
+        <v>1741.670017572833</v>
       </c>
       <c r="C293" t="n">
-        <v>1887057022.01231</v>
+        <v>1741670017.572833</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>0.71</v>
       </c>
       <c r="B294" t="n">
-        <v>1889.279041475301</v>
+        <v>1744.03088609015</v>
       </c>
       <c r="C294" t="n">
-        <v>1889279041.475301</v>
+        <v>1744030886.09015</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>0.715</v>
       </c>
       <c r="B295" t="n">
-        <v>1891.488067885585</v>
+        <v>1746.378366681537</v>
       </c>
       <c r="C295" t="n">
-        <v>1891488067.885585</v>
+        <v>1746378366.681537</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>0.72</v>
       </c>
       <c r="B296" t="n">
-        <v>1893.68426722278</v>
+        <v>1748.712628024105</v>
       </c>
       <c r="C296" t="n">
-        <v>1893684267.22278</v>
+        <v>1748712628.024105</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>0.725</v>
       </c>
       <c r="B297" t="n">
-        <v>1895.867802212344</v>
+        <v>1751.033835517265</v>
       </c>
       <c r="C297" t="n">
-        <v>1895867802.212344</v>
+        <v>1751033835.517265</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>0.73</v>
       </c>
       <c r="B298" t="n">
-        <v>1898.038832411306</v>
+        <v>1753.342151368506</v>
       </c>
       <c r="C298" t="n">
-        <v>1898038832.411306</v>
+        <v>1753342151.368506</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>0.735</v>
       </c>
       <c r="B299" t="n">
-        <v>1900.197514291154</v>
+        <v>1755.637734676359</v>
       </c>
       <c r="C299" t="n">
-        <v>1900197514.291154</v>
+        <v>1755637734.676359</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>0.74</v>
       </c>
       <c r="B300" t="n">
-        <v>1902.344001318024</v>
+        <v>1757.920741510655</v>
       </c>
       <c r="C300" t="n">
-        <v>1902344001.318024</v>
+        <v>1757920741.510655</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>0.745</v>
       </c>
       <c r="B301" t="n">
-        <v>1904.478444030265</v>
+        <v>1760.191324990191</v>
       </c>
       <c r="C301" t="n">
-        <v>1904478444.030265</v>
+        <v>1760191324.990191</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>0.75</v>
       </c>
       <c r="B302" t="n">
-        <v>1906.600990113509</v>
+        <v>1762.449635357892</v>
       </c>
       <c r="C302" t="n">
-        <v>1906600990.113509</v>
+        <v>1762449635.357892</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>0.755</v>
       </c>
       <c r="B303" t="n">
-        <v>1908.71178447332</v>
+        <v>1764.695820053572</v>
       </c>
       <c r="C303" t="n">
-        <v>1908711784.47332</v>
+        <v>1764695820.053572</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>0.76</v>
       </c>
       <c r="B304" t="n">
-        <v>1910.810969305531</v>
+        <v>1766.930023784391</v>
       </c>
       <c r="C304" t="n">
-        <v>1910810969.305531</v>
+        <v>1766930023.784391</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>0.765</v>
       </c>
       <c r="B305" t="n">
-        <v>1912.89868416435</v>
+        <v>1769.152388593085</v>
       </c>
       <c r="C305" t="n">
-        <v>1912898684.16435</v>
+        <v>1769152388.593085</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>0.77</v>
       </c>
       <c r="B306" t="n">
-        <v>1914.975066028325</v>
+        <v>1771.363053924064</v>
       </c>
       <c r="C306" t="n">
-        <v>1914975066.028325</v>
+        <v>1771363053.924064</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>0.775</v>
       </c>
       <c r="B307" t="n">
-        <v>1917.04024936424</v>
+        <v>1773.562156687449</v>
       </c>
       <c r="C307" t="n">
-        <v>1917040249.364239</v>
+        <v>1773562156.687449</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>0.78</v>
       </c>
       <c r="B308" t="n">
-        <v>1919.09436618903</v>
+        <v>1775.749831321133</v>
       </c>
       <c r="C308" t="n">
-        <v>1919094366.18903</v>
+        <v>1775749831.321133</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>0.785</v>
       </c>
       <c r="B309" t="n">
-        <v>1921.137546129781</v>
+        <v>1777.926209850931</v>
       </c>
       <c r="C309" t="n">
-        <v>1921137546.129781</v>
+        <v>1777926209.850931</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>0.79</v>
       </c>
       <c r="B310" t="n">
-        <v>1923.169916481891</v>
+        <v>1780.091421948898</v>
       </c>
       <c r="C310" t="n">
-        <v>1923169916.481891</v>
+        <v>1780091421.948898</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>0.795</v>
       </c>
       <c r="B311" t="n">
-        <v>1925.191602265457</v>
+        <v>1782.245594989874</v>
       </c>
       <c r="C311" t="n">
-        <v>1925191602.265457</v>
+        <v>1782245594.989874</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>0.8</v>
       </c>
       <c r="B312" t="n">
-        <v>1927.20272627995</v>
+        <v>1784.38885410633</v>
       </c>
       <c r="C312" t="n">
-        <v>1927202726.27995</v>
+        <v>1784388854.10633</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>0.805</v>
       </c>
       <c r="B313" t="n">
-        <v>1929.203409157253</v>
+        <v>1786.521322241566</v>
       </c>
       <c r="C313" t="n">
-        <v>1929203409.157253</v>
+        <v>1786521322.241566</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B314" t="n">
-        <v>1931.193769413097</v>
+        <v>1788.643120201327</v>
       </c>
       <c r="C314" t="n">
-        <v>1931193769.413097</v>
+        <v>1788643120.201327</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B315" t="n">
-        <v>1933.173923496984</v>
+        <v>1790.754366703893</v>
       </c>
       <c r="C315" t="n">
-        <v>1933173923.496984</v>
+        <v>1790754366.703893</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>0.82</v>
       </c>
       <c r="B316" t="n">
-        <v>1935.143985840621</v>
+        <v>1792.855178428695</v>
       </c>
       <c r="C316" t="n">
-        <v>1935143985.840621</v>
+        <v>1792855178.428695</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>0.825</v>
       </c>
       <c r="B317" t="n">
-        <v>1937.10406890494</v>
+        <v>1794.945670063511</v>
       </c>
       <c r="C317" t="n">
-        <v>1937104068.90494</v>
+        <v>1794945670.06351</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>0.83</v>
       </c>
       <c r="B318" t="n">
-        <v>1939.054283225737</v>
+        <v>1797.025954350288</v>
       </c>
       <c r="C318" t="n">
-        <v>1939054283.225737</v>
+        <v>1797025954.350288</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>0.835</v>
       </c>
       <c r="B319" t="n">
-        <v>1940.994737457993</v>
+        <v>1799.096142129647</v>
       </c>
       <c r="C319" t="n">
-        <v>1940994737.457993</v>
+        <v>1799096142.129647</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>0.84</v>
       </c>
       <c r="B320" t="n">
-        <v>1942.925538418913</v>
+        <v>1801.156342384102</v>
       </c>
       <c r="C320" t="n">
-        <v>1942925538.418913</v>
+        <v>1801156342.384102</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>0.845</v>
       </c>
       <c r="B321" t="n">
-        <v>1944.846791129733</v>
+        <v>1803.206662280054</v>
       </c>
       <c r="C321" t="n">
-        <v>1944846791.129733</v>
+        <v>1803206662.280054</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>0.85</v>
       </c>
       <c r="B322" t="n">
-        <v>1946.758598856328</v>
+        <v>1805.247207208591</v>
       </c>
       <c r="C322" t="n">
-        <v>1946758598.856328</v>
+        <v>1805247207.208591</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>0.855</v>
       </c>
       <c r="B323" t="n">
-        <v>1948.661063148681</v>
+        <v>1807.278080825132</v>
       </c>
       <c r="C323" t="n">
-        <v>1948661063.148681</v>
+        <v>1807278080.825132</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>0.86</v>
       </c>
       <c r="B324" t="n">
-        <v>1950.554283879228</v>
+        <v>1809.299385087971</v>
       </c>
       <c r="C324" t="n">
-        <v>1950554283.879228</v>
+        <v>1809299385.087971</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>0.865</v>
       </c>
       <c r="B325" t="n">
-        <v>1952.438359280133</v>
+        <v>1811.311220295735</v>
       </c>
       <c r="C325" t="n">
-        <v>1952438359.280133</v>
+        <v>1811311220.295735</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>0.87</v>
       </c>
       <c r="B326" t="n">
-        <v>1954.313385979531</v>
+        <v>1813.313685123813</v>
       </c>
       <c r="C326" t="n">
-        <v>1954313385.979531</v>
+        <v>1813313685.123813</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>0.875</v>
       </c>
       <c r="B327" t="n">
-        <v>1956.179459036754</v>
+        <v>1815.306876659775</v>
       </c>
       <c r="C327" t="n">
-        <v>1956179459.036754</v>
+        <v>1815306876.659775</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>0.88</v>
       </c>
       <c r="B328" t="n">
-        <v>1958.0366719766</v>
+        <v>1817.290890437825</v>
       </c>
       <c r="C328" t="n">
-        <v>1958036671.9766</v>
+        <v>1817290890.437824</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>0.885</v>
       </c>
       <c r="B329" t="n">
-        <v>1959.885116822654</v>
+        <v>1819.265820472312</v>
       </c>
       <c r="C329" t="n">
-        <v>1959885116.822654</v>
+        <v>1819265820.472312</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>0.89</v>
       </c>
       <c r="B330" t="n">
-        <v>1961.72488412971</v>
+        <v>1821.231759290338</v>
       </c>
       <c r="C330" t="n">
-        <v>1961724884.12971</v>
+        <v>1821231759.290339</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>0.895</v>
       </c>
       <c r="B331" t="n">
-        <v>1963.556063015306</v>
+        <v>1823.188797963483</v>
       </c>
       <c r="C331" t="n">
-        <v>1963556063.015306</v>
+        <v>1823188797.963483</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>0.9</v>
       </c>
       <c r="B332" t="n">
-        <v>1965.37874119042</v>
+        <v>1825.137026138681</v>
       </c>
       <c r="C332" t="n">
-        <v>1965378741.19042</v>
+        <v>1825137026.138681</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>0.905</v>
       </c>
       <c r="B333" t="n">
-        <v>1967.193004989335</v>
+        <v>1827.076532068276</v>
       </c>
       <c r="C333" t="n">
-        <v>1967193004.989335</v>
+        <v>1827076532.068276</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>0.91</v>
       </c>
       <c r="B334" t="n">
-        <v>1968.998939398714</v>
+        <v>1829.007402639282</v>
       </c>
       <c r="C334" t="n">
-        <v>1968998939.398714</v>
+        <v>1829007402.639282</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>0.915</v>
       </c>
       <c r="B335" t="n">
-        <v>1970.796628085907</v>
+        <v>1830.929723401868</v>
       </c>
       <c r="C335" t="n">
-        <v>1970796628.085907</v>
+        <v>1830929723.401868</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>0.92</v>
       </c>
       <c r="B336" t="n">
-        <v>1972.586153426501</v>
+        <v>1832.843578597101</v>
       </c>
       <c r="C336" t="n">
-        <v>1972586153.426501</v>
+        <v>1832843578.597101</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>0.925</v>
       </c>
       <c r="B337" t="n">
-        <v>1974.367596531167</v>
+        <v>1834.749051183964</v>
       </c>
       <c r="C337" t="n">
-        <v>1974367596.531167</v>
+        <v>1834749051.183964</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>0.93</v>
       </c>
       <c r="B338" t="n">
-        <v>1976.14103727179</v>
+        <v>1836.646222865674</v>
       </c>
       <c r="C338" t="n">
-        <v>1976141037.27179</v>
+        <v>1836646222.865674</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B339" t="n">
-        <v>1977.906554306929</v>
+        <v>1838.535174115323</v>
       </c>
       <c r="C339" t="n">
-        <v>1977906554.306929</v>
+        <v>1838535174.115323</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B340" t="n">
-        <v>1979.664225106627</v>
+        <v>1840.415984200857</v>
       </c>
       <c r="C340" t="n">
-        <v>1979664225.106627</v>
+        <v>1840415984.200857</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>0.945</v>
       </c>
       <c r="B341" t="n">
-        <v>1981.414125976571</v>
+        <v>1842.288731209426</v>
       </c>
       <c r="C341" t="n">
-        <v>1981414125.976571</v>
+        <v>1842288731.209426</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>0.95</v>
       </c>
       <c r="B342" t="n">
-        <v>1983.156332081647</v>
+        <v>1844.153492071106</v>
       </c>
       <c r="C342" t="n">
-        <v>1983156332.081647</v>
+        <v>1844153492.071106</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>0.955</v>
       </c>
       <c r="B343" t="n">
-        <v>1984.890917468896</v>
+        <v>1846.010342582033</v>
       </c>
       <c r="C343" t="n">
-        <v>1984890917.468896</v>
+        <v>1846010342.582033</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>0.96</v>
       </c>
       <c r="B344" t="n">
-        <v>1986.617955089885</v>
+        <v>1847.859357426945</v>
       </c>
       <c r="C344" t="n">
-        <v>1986617955.089885</v>
+        <v>1847859357.426945</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>0.965</v>
       </c>
       <c r="B345" t="n">
-        <v>1988.337516822521</v>
+        <v>1849.700610201174</v>
       </c>
       <c r="C345" t="n">
-        <v>1988337516.822521</v>
+        <v>1849700610.201174</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>0.97</v>
       </c>
       <c r="B346" t="n">
-        <v>1990.04967349232</v>
+        <v>1851.534173432076</v>
       </c>
       <c r="C346" t="n">
-        <v>1990049673.49232</v>
+        <v>1851534173.432076</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>0.975</v>
       </c>
       <c r="B347" t="n">
-        <v>1991.754494893145</v>
+        <v>1853.360118599948</v>
       </c>
       <c r="C347" t="n">
-        <v>1991754494.893145</v>
+        <v>1853360118.599948</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>0.98</v>
       </c>
       <c r="B348" t="n">
-        <v>1993.452049807434</v>
+        <v>1855.178516158416</v>
       </c>
       <c r="C348" t="n">
-        <v>1993452049.807434</v>
+        <v>1855178516.158417</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>0.985</v>
       </c>
       <c r="B349" t="n">
-        <v>1995.142406025929</v>
+        <v>1856.989435554335</v>
       </c>
       <c r="C349" t="n">
-        <v>1995142406.025929</v>
+        <v>1856989435.554335</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>0.99</v>
       </c>
       <c r="B350" t="n">
-        <v>1996.825630366923</v>
+        <v>1858.792945247195</v>
       </c>
       <c r="C350" t="n">
-        <v>1996825630.366923</v>
+        <v>1858792945.247195</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>0.995</v>
       </c>
       <c r="B351" t="n">
-        <v>1998.501788695038</v>
+        <v>1860.589112728068</v>
       </c>
       <c r="C351" t="n">
-        <v>1998501788.695038</v>
+        <v>1860589112.728068</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="B352" t="n">
-        <v>2000.170945939548</v>
+        <v>1862.378004538086</v>
       </c>
       <c r="C352" t="n">
-        <v>2000170945.939548</v>
+        <v>1862378004.538086</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>1.005</v>
       </c>
       <c r="B353" t="n">
-        <v>2001.833166112258</v>
+        <v>1864.159686286489</v>
       </c>
       <c r="C353" t="n">
-        <v>2001833166.112258</v>
+        <v>1864159686.286489</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>1.01</v>
       </c>
       <c r="B354" t="n">
-        <v>2003.488512324961</v>
+        <v>1865.934222668229</v>
       </c>
       <c r="C354" t="n">
-        <v>2003488512.324961</v>
+        <v>1865934222.668229</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>1.015</v>
       </c>
       <c r="B355" t="n">
-        <v>2005.137046806472</v>
+        <v>1867.701677481169</v>
       </c>
       <c r="C355" t="n">
-        <v>2005137046.806472</v>
+        <v>1867701677.481169</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>1.02</v>
       </c>
       <c r="B356" t="n">
-        <v>2006.778830919257</v>
+        <v>1869.462113642864</v>
       </c>
       <c r="C356" t="n">
-        <v>2006778830.919257</v>
+        <v>1869462113.642864</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>1.025</v>
       </c>
       <c r="B357" t="n">
-        <v>2008.413925175676</v>
+        <v>1871.215593206956</v>
       </c>
       <c r="C357" t="n">
-        <v>2008413925.175676</v>
+        <v>1871215593.206956</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>1.03</v>
       </c>
       <c r="B358" t="n">
-        <v>2010.042389253834</v>
+        <v>1872.96217737918</v>
       </c>
       <c r="C358" t="n">
-        <v>2010042389.253834</v>
+        <v>1872962177.37918</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>1.035</v>
       </c>
       <c r="B359" t="n">
-        <v>2011.664282013073</v>
+        <v>1874.701926533004</v>
       </c>
       <c r="C359" t="n">
-        <v>2011664282.013072</v>
+        <v>1874701926.533004</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>1.04</v>
       </c>
       <c r="B360" t="n">
-        <v>2013.279661509089</v>
+        <v>1876.434900224896</v>
       </c>
       <c r="C360" t="n">
-        <v>2013279661.509089</v>
+        <v>1876434900.224896</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>1.045</v>
       </c>
       <c r="B361" t="n">
-        <v>2014.888585008714</v>
+        <v>1878.16115720925</v>
       </c>
       <c r="C361" t="n">
-        <v>2014888585.008714</v>
+        <v>1878161157.20925</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>1.05</v>
       </c>
       <c r="B362" t="n">
-        <v>2016.491109004344</v>
+        <v>1879.880755452962</v>
       </c>
       <c r="C362" t="n">
-        <v>2016491109.004344</v>
+        <v>1879880755.452962</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>1.055</v>
       </c>
       <c r="B363" t="n">
-        <v>2018.08728922804</v>
+        <v>1881.593752149678</v>
       </c>
       <c r="C363" t="n">
-        <v>2018087289.22804</v>
+        <v>1881593752.149678</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>1.06</v>
       </c>
       <c r="B364" t="n">
-        <v>2019.677180665313</v>
+        <v>1883.300203733714</v>
       </c>
       <c r="C364" t="n">
-        <v>2019677180.665313</v>
+        <v>1883300203.733714</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>1.065</v>
       </c>
       <c r="B365" t="n">
-        <v>2021.260837568586</v>
+        <v>1885.000165893661</v>
       </c>
       <c r="C365" t="n">
-        <v>2021260837.568586</v>
+        <v>1885000165.893661</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>1.07</v>
       </c>
       <c r="B366" t="n">
-        <v>2022.838313470357</v>
+        <v>1886.693693585693</v>
       </c>
       <c r="C366" t="n">
-        <v>2022838313.470357</v>
+        <v>1886693693.585693</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>1.075</v>
       </c>
       <c r="B367" t="n">
-        <v>2024.409661196061</v>
+        <v>1888.380841046558</v>
       </c>
       <c r="C367" t="n">
-        <v>2024409661.196061</v>
+        <v>1888380841.046558</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>1.08</v>
       </c>
       <c r="B368" t="n">
-        <v>2025.974932876653</v>
+        <v>1890.061661806301</v>
       </c>
       <c r="C368" t="n">
-        <v>2025974932.876653</v>
+        <v>1890061661.806301</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>1.085</v>
       </c>
       <c r="B369" t="n">
-        <v>2027.534179960896</v>
+        <v>1891.736208700687</v>
       </c>
       <c r="C369" t="n">
-        <v>2027534179.960896</v>
+        <v>1891736208.700687</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>1.09</v>
       </c>
       <c r="B370" t="n">
-        <v>2029.087453227388</v>
+        <v>1893.404533883361</v>
       </c>
       <c r="C370" t="n">
-        <v>2029087453.227388</v>
+        <v>1893404533.883361</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>1.095</v>
       </c>
       <c r="B371" t="n">
-        <v>2030.634802796317</v>
+        <v>1895.06668883773</v>
       </c>
       <c r="C371" t="n">
-        <v>2030634802.796317</v>
+        <v>1895066688.83773</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>1.1</v>
       </c>
       <c r="B372" t="n">
-        <v>2032.17627814096</v>
+        <v>1896.722724388595</v>
       </c>
       <c r="C372" t="n">
-        <v>2032176278.14096</v>
+        <v>1896722724.388595</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>1.105</v>
       </c>
       <c r="B373" t="n">
-        <v>2033.711928098926</v>
+        <v>1898.372690713525</v>
       </c>
       <c r="C373" t="n">
-        <v>2033711928.098926</v>
+        <v>1898372690.713525</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>1.11</v>
       </c>
       <c r="B374" t="n">
-        <v>2035.241800883158</v>
+        <v>1900.016637353979</v>
       </c>
       <c r="C374" t="n">
-        <v>2035241800.883158</v>
+        <v>1900016637.353979</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>1.115</v>
       </c>
       <c r="B375" t="n">
-        <v>2036.765944092695</v>
+        <v>1901.654613226198</v>
       </c>
       <c r="C375" t="n">
-        <v>2036765944.092695</v>
+        <v>1901654613.226198</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>1.12</v>
       </c>
       <c r="B376" t="n">
-        <v>2038.284404723199</v>
+        <v>1903.286666631856</v>
       </c>
       <c r="C376" t="n">
-        <v>2038284404.723199</v>
+        <v>1903286666.631856</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>1.125</v>
       </c>
       <c r="B377" t="n">
-        <v>2039.797229177256</v>
+        <v>1904.91284526848</v>
       </c>
       <c r="C377" t="n">
-        <v>2039797229.177256</v>
+        <v>1904912845.26848</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>1.13</v>
       </c>
       <c r="B378" t="n">
-        <v>2041.30446327446</v>
+        <v>1906.533196239659</v>
       </c>
       <c r="C378" t="n">
-        <v>2041304463.27446</v>
+        <v>1906533196.239659</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>1.135</v>
       </c>
       <c r="B379" t="n">
-        <v>2042.806152261278</v>
+        <v>1908.147766065022</v>
       </c>
       <c r="C379" t="n">
-        <v>2042806152.261278</v>
+        <v>1908147766.065022</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>1.14</v>
       </c>
       <c r="B380" t="n">
-        <v>2044.302340820706</v>
+        <v>1909.756600690019</v>
       </c>
       <c r="C380" t="n">
-        <v>2044302340.820706</v>
+        <v>1909756600.690019</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>1.145</v>
       </c>
       <c r="B381" t="n">
-        <v>2045.793073081721</v>
+        <v>1911.359745495484</v>
       </c>
       <c r="C381" t="n">
-        <v>2045793073.081721</v>
+        <v>1911359745.495484</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>1.15</v>
       </c>
       <c r="B382" t="n">
-        <v>2047.278392628534</v>
+        <v>1912.957245307007</v>
       </c>
       <c r="C382" t="n">
-        <v>2047278392.628535</v>
+        <v>1912957245.307007</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>1.155</v>
       </c>
       <c r="B383" t="n">
-        <v>2048.75834250965</v>
+        <v>1914.549144404107</v>
       </c>
       <c r="C383" t="n">
-        <v>2048758342.50965</v>
+        <v>1914549144.404107</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>1.16</v>
       </c>
       <c r="B384" t="n">
-        <v>2050.232965246737</v>
+        <v>1916.13548652921</v>
       </c>
       <c r="C384" t="n">
-        <v>2050232965.246737</v>
+        <v>1916135486.52921</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>1.165</v>
       </c>
       <c r="B385" t="n">
-        <v>2051.702302843313</v>
+        <v>1917.716314896451</v>
       </c>
       <c r="C385" t="n">
-        <v>2051702302.843313</v>
+        <v>1917716314.896451</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>1.17</v>
       </c>
       <c r="B386" t="n">
-        <v>2053.16639679325</v>
+        <v>1919.291672200286</v>
       </c>
       <c r="C386" t="n">
-        <v>2053166396.79325</v>
+        <v>1919291672.200286</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>1.175</v>
       </c>
       <c r="B387" t="n">
-        <v>2054.625288089106</v>
+        <v>1920.861600623931</v>
       </c>
       <c r="C387" t="n">
-        <v>2054625288.089106</v>
+        <v>1920861600.623931</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>1.18</v>
       </c>
       <c r="B388" t="n">
-        <v>2056.079017230284</v>
+        <v>1922.42614184763</v>
       </c>
       <c r="C388" t="n">
-        <v>2056079017.230284</v>
+        <v>1922426141.84763</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>1.185</v>
       </c>
       <c r="B389" t="n">
-        <v>2057.527624231025</v>
+        <v>1923.985337056753</v>
       </c>
       <c r="C389" t="n">
-        <v>2057527624.231025</v>
+        <v>1923985337.056753</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>1.19</v>
       </c>
       <c r="B390" t="n">
-        <v>2058.971148628238</v>
+        <v>1925.53922694973</v>
       </c>
       <c r="C390" t="n">
-        <v>2058971148.628238</v>
+        <v>1925539226.94973</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>1.195</v>
       </c>
       <c r="B391" t="n">
-        <v>2060.409629489172</v>
+        <v>1927.087851745826</v>
       </c>
       <c r="C391" t="n">
-        <v>2060409629.489172</v>
+        <v>1927087851.745826</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>1.2</v>
       </c>
       <c r="B392" t="n">
-        <v>2061.84310541893</v>
+        <v>1928.631251192759</v>
       </c>
       <c r="C392" t="n">
-        <v>2061843105.418931</v>
+        <v>1928631251.192759</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>1.205</v>
       </c>
       <c r="B393" t="n">
-        <v>2063.271614567841</v>
+        <v>1930.169464574165</v>
       </c>
       <c r="C393" t="n">
-        <v>2063271614.567842</v>
+        <v>1930169464.574165</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>1.21</v>
       </c>
       <c r="B394" t="n">
-        <v>2064.695194638671</v>
+        <v>1931.702530716921</v>
       </c>
       <c r="C394" t="n">
-        <v>2064695194.638671</v>
+        <v>1931702530.716921</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>1.215</v>
       </c>
       <c r="B395" t="n">
-        <v>2066.113882893701</v>
+        <v>1933.230487998311</v>
       </c>
       <c r="C395" t="n">
-        <v>2066113882.893701</v>
+        <v>1933230487.998311</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>1.22</v>
       </c>
       <c r="B396" t="n">
-        <v>2067.52771616166</v>
+        <v>1934.753374353057</v>
       </c>
       <c r="C396" t="n">
-        <v>2067527716.16166</v>
+        <v>1934753374.353057</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>1.225</v>
       </c>
       <c r="B397" t="n">
-        <v>2068.936730844524</v>
+        <v>1936.271227280219</v>
       </c>
       <c r="C397" t="n">
-        <v>2068936730.844524</v>
+        <v>1936271227.280219</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>1.23</v>
       </c>
       <c r="B398" t="n">
-        <v>2070.340962924177</v>
+        <v>1937.784083849945</v>
       </c>
       <c r="C398" t="n">
-        <v>2070340962.924177</v>
+        <v>1937784083.849945</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>1.235</v>
       </c>
       <c r="B399" t="n">
-        <v>2071.740447968942</v>
+        <v>1939.291980710099</v>
       </c>
       <c r="C399" t="n">
-        <v>2071740447.968942</v>
+        <v>1939291980.710099</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>1.24</v>
       </c>
       <c r="B400" t="n">
-        <v>2073.135221139991</v>
+        <v>1940.79495409276</v>
       </c>
       <c r="C400" t="n">
-        <v>2073135221.139991</v>
+        <v>1940794954.09276</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>1.245</v>
       </c>
       <c r="B401" t="n">
-        <v>2074.525317197619</v>
+        <v>1942.293039820589</v>
       </c>
       <c r="C401" t="n">
-        <v>2074525317.197619</v>
+        <v>1942293039.820589</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>1.25</v>
       </c>
       <c r="B402" t="n">
-        <v>2075.910770507408</v>
+        <v>1943.786273313085</v>
       </c>
       <c r="C402" t="n">
-        <v>2075910770.507408</v>
+        <v>1943786273.313085</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>1.255</v>
       </c>
       <c r="B403" t="n">
-        <v>2077.291615046264</v>
+        <v>1945.274689592706</v>
       </c>
       <c r="C403" t="n">
-        <v>2077291615.046264</v>
+        <v>1945274689.592706</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>1.26</v>
       </c>
       <c r="B404" t="n">
-        <v>2078.667884408341</v>
+        <v>1946.758323290884</v>
       </c>
       <c r="C404" t="n">
-        <v>2078667884.408341</v>
+        <v>1946758323.290884</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>1.265</v>
       </c>
       <c r="B405" t="n">
-        <v>2080.03961181085</v>
+        <v>1948.237208653923</v>
       </c>
       <c r="C405" t="n">
-        <v>2080039611.81085</v>
+        <v>1948237208.653923</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>1.27</v>
       </c>
       <c r="B406" t="n">
-        <v>2081.406830099765</v>
+        <v>1949.711379548783</v>
       </c>
       <c r="C406" t="n">
-        <v>2081406830.099765</v>
+        <v>1949711379.548783</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>1.275</v>
       </c>
       <c r="B407" t="n">
-        <v>2082.769571755407</v>
+        <v>1951.180869468754</v>
       </c>
       <c r="C407" t="n">
-        <v>2082769571.755407</v>
+        <v>1951180869.468754</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>1.28</v>
       </c>
       <c r="B408" t="n">
-        <v>2084.127868897931</v>
+        <v>1952.64571153903</v>
       </c>
       <c r="C408" t="n">
-        <v>2084127868.897931</v>
+        <v>1952645711.53903</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>1.285</v>
       </c>
       <c r="B409" t="n">
-        <v>2085.481753292712</v>
+        <v>1954.105938522167</v>
       </c>
       <c r="C409" t="n">
-        <v>2085481753.292712</v>
+        <v>1954105938.522167</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>1.29</v>
       </c>
       <c r="B410" t="n">
-        <v>2086.831256355623</v>
+        <v>1955.561582823454</v>
       </c>
       <c r="C410" t="n">
-        <v>2086831256.355623</v>
+        <v>1955561582.823454</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>1.295</v>
       </c>
       <c r="B411" t="n">
-        <v>2088.176409158219</v>
+        <v>1957.012676496168</v>
       </c>
       <c r="C411" t="n">
-        <v>2088176409.158219</v>
+        <v>1957012676.496168</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>1.3</v>
       </c>
       <c r="B412" t="n">
-        <v>2089.517242432821</v>
+        <v>1958.459251246744</v>
       </c>
       <c r="C412" t="n">
-        <v>2089517242.432821</v>
+        <v>1958459251.246744</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>1.305</v>
       </c>
       <c r="B413" t="n">
-        <v>2090.853786577509</v>
+        <v>1959.901338439844</v>
       </c>
       <c r="C413" t="n">
-        <v>2090853786.577509</v>
+        <v>1959901338.439844</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>1.31</v>
       </c>
       <c r="B414" t="n">
-        <v>2092.186071661025</v>
+        <v>1961.338969103334</v>
       </c>
       <c r="C414" t="n">
-        <v>2092186071.661025</v>
+        <v>1961338969.103333</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>1.315</v>
       </c>
       <c r="B415" t="n">
-        <v>2093.514127427572</v>
+        <v>1962.772173933169</v>
       </c>
       <c r="C415" t="n">
-        <v>2093514127.427572</v>
+        <v>1962772173.933169</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>1.32</v>
       </c>
       <c r="B416" t="n">
-        <v>2094.837983301547</v>
+        <v>1964.200983298191</v>
       </c>
       <c r="C416" t="n">
-        <v>2094837983.301548</v>
+        <v>1964200983.298191</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>1.325</v>
       </c>
       <c r="B417" t="n">
-        <v>2096.157668392168</v>
+        <v>1965.625427244838</v>
       </c>
       <c r="C417" t="n">
-        <v>2096157668.392168</v>
+        <v>1965625427.244838</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>1.33</v>
       </c>
       <c r="B418" t="n">
-        <v>2097.473211498025</v>
+        <v>1967.045535501765</v>
       </c>
       <c r="C418" t="n">
-        <v>2097473211.498025</v>
+        <v>1967045535.501765</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>1.335</v>
       </c>
       <c r="B419" t="n">
-        <v>2098.784641111551</v>
+        <v>1968.46133748439</v>
       </c>
       <c r="C419" t="n">
-        <v>2098784641.111551</v>
+        <v>1968461337.48439</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>1.34</v>
       </c>
       <c r="B420" t="n">
-        <v>2100.091985423407</v>
+        <v>1969.87286229935</v>
       </c>
       <c r="C420" t="n">
-        <v>2100091985.423407</v>
+        <v>1969872862.29935</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>1.345</v>
       </c>
       <c r="B421" t="n">
-        <v>2101.395272326789</v>
+        <v>1971.280138748881</v>
       </c>
       <c r="C421" t="n">
-        <v>2101395272.326789</v>
+        <v>1971280138.748881</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>1.35</v>
       </c>
       <c r="B422" t="n">
-        <v>2102.694529421663</v>
+        <v>1972.683195335117</v>
       </c>
       <c r="C422" t="n">
-        <v>2102694529.421663</v>
+        <v>1972683195.335117</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>1.355</v>
       </c>
       <c r="B423" t="n">
-        <v>2103.989784018914</v>
+        <v>1974.082060264317</v>
       </c>
       <c r="C423" t="n">
-        <v>2103989784.018914</v>
+        <v>1974082060.264317</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>1.36</v>
       </c>
       <c r="B424" t="n">
-        <v>2105.281063144433</v>
+        <v>1975.476761451017</v>
       </c>
       <c r="C424" t="n">
-        <v>2105281063.144433</v>
+        <v>1975476761.451017</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>1.365</v>
       </c>
       <c r="B425" t="n">
-        <v>2106.568393543123</v>
+        <v>1976.8673265221</v>
       </c>
       <c r="C425" t="n">
-        <v>2106568393.543123</v>
+        <v>1976867326.5221</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>1.37</v>
       </c>
       <c r="B426" t="n">
-        <v>2107.851801682836</v>
+        <v>1978.253782820808</v>
       </c>
       <c r="C426" t="n">
-        <v>2107851801.682836</v>
+        <v>1978253782.820808</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>1.375</v>
       </c>
       <c r="B427" t="n">
-        <v>2109.131313758247</v>
+        <v>1979.636157410672</v>
       </c>
       <c r="C427" t="n">
-        <v>2109131313.758247</v>
+        <v>1979636157.410671</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,10 @@
         <v>1.38</v>
       </c>
       <c r="B428" t="n">
-        <v>2110.406955694648</v>
+        <v>1981.014477079379</v>
       </c>
       <c r="C428" t="n">
-        <v>2110406955.694648</v>
+        <v>1981014477.079379</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5152,10 @@
         <v>1.385</v>
       </c>
       <c r="B429" t="n">
-        <v>2111.678753151687</v>
+        <v>1982.388768342575</v>
       </c>
       <c r="C429" t="n">
-        <v>2111678753.151687</v>
+        <v>1982388768.342575</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5163,10 @@
         <v>1.39</v>
       </c>
       <c r="B430" t="n">
-        <v>2112.946731527035</v>
+        <v>1983.759057447591</v>
       </c>
       <c r="C430" t="n">
-        <v>2112946731.527035</v>
+        <v>1983759057.447592</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5174,10 @@
         <v>1.395</v>
       </c>
       <c r="B431" t="n">
-        <v>2114.210915959995</v>
+        <v>1985.125370377119</v>
       </c>
       <c r="C431" t="n">
-        <v>2114210915.959995</v>
+        <v>1985125370.377119</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5185,10 @@
         <v>1.4</v>
       </c>
       <c r="B432" t="n">
-        <v>2115.471331335039</v>
+        <v>1986.487732852811</v>
       </c>
       <c r="C432" t="n">
-        <v>2115471331.335039</v>
+        <v>1986487732.852811</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5196,10 @@
         <v>1.405</v>
       </c>
       <c r="B433" t="n">
-        <v>2116.728002285298</v>
+        <v>1987.846170338828</v>
       </c>
       <c r="C433" t="n">
-        <v>2116728002.285298</v>
+        <v>1987846170.338828</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5207,10 @@
         <v>1.41</v>
       </c>
       <c r="B434" t="n">
-        <v>2117.98095319598</v>
+        <v>1989.20070804532</v>
       </c>
       <c r="C434" t="n">
-        <v>2117980953.19598</v>
+        <v>1989200708.04532</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>1.415</v>
       </c>
       <c r="B435" t="n">
-        <v>2119.230208207733</v>
+        <v>1990.551370931851</v>
       </c>
       <c r="C435" t="n">
-        <v>2119230208.207733</v>
+        <v>1990551370.931851</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5229,10 @@
         <v>1.42</v>
       </c>
       <c r="B436" t="n">
-        <v>2120.475791219955</v>
+        <v>1991.898183710765</v>
       </c>
       <c r="C436" t="n">
-        <v>2120475791.219955</v>
+        <v>1991898183.710765</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5240,10 @@
         <v>1.425</v>
       </c>
       <c r="B437" t="n">
-        <v>2121.717725894043</v>
+        <v>1993.241170850494</v>
       </c>
       <c r="C437" t="n">
-        <v>2121717725.894043</v>
+        <v>1993241170.850494</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5251,10 @@
         <v>1.43</v>
       </c>
       <c r="B438" t="n">
-        <v>2122.956035656587</v>
+        <v>1994.580356578814</v>
       </c>
       <c r="C438" t="n">
-        <v>2122956035.656587</v>
+        <v>1994580356.578815</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5262,10 @@
         <v>1.435</v>
       </c>
       <c r="B439" t="n">
-        <v>2124.190743702514</v>
+        <v>1995.915764886041</v>
       </c>
       <c r="C439" t="n">
-        <v>2124190743.702514</v>
+        <v>1995915764.886041</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5273,10 @@
         <v>1.44</v>
       </c>
       <c r="B440" t="n">
-        <v>2125.421872998174</v>
+        <v>1997.247419528175</v>
       </c>
       <c r="C440" t="n">
-        <v>2125421872.998173</v>
+        <v>1997247419.528175</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5284,10 @@
         <v>1.445</v>
       </c>
       <c r="B441" t="n">
-        <v>2126.649446284378</v>
+        <v>1998.575344029997</v>
       </c>
       <c r="C441" t="n">
-        <v>2126649446.284378</v>
+        <v>1998575344.029997</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5295,10 @@
         <v>1.45</v>
       </c>
       <c r="B442" t="n">
-        <v>2127.873486079387</v>
+        <v>1999.899561688107</v>
       </c>
       <c r="C442" t="n">
-        <v>2127873486.079387</v>
+        <v>1999899561.688107</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5306,10 @@
         <v>1.455</v>
       </c>
       <c r="B443" t="n">
-        <v>2129.094014681845</v>
+        <v>2001.220095573917</v>
       </c>
       <c r="C443" t="n">
-        <v>2129094014.681845</v>
+        <v>2001220095.573916</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5317,10 @@
         <v>1.46</v>
       </c>
       <c r="B444" t="n">
-        <v>2130.311054173667</v>
+        <v>2002.536968536589</v>
       </c>
       <c r="C444" t="n">
-        <v>2130311054.173667</v>
+        <v>2002536968.536589</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5328,10 @@
         <v>1.465</v>
       </c>
       <c r="B445" t="n">
-        <v>2131.524626422881</v>
+        <v>2003.850203205936</v>
       </c>
       <c r="C445" t="n">
-        <v>2131524626.422881</v>
+        <v>2003850203.205936</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5339,10 @@
         <v>1.47</v>
       </c>
       <c r="B446" t="n">
-        <v>2132.734753086421</v>
+        <v>2005.159821995259</v>
       </c>
       <c r="C446" t="n">
-        <v>2132734753.086421</v>
+        <v>2005159821.995259</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5350,10 @@
         <v>1.475</v>
       </c>
       <c r="B447" t="n">
-        <v>2133.941455612873</v>
+        <v>2006.465847104153</v>
       </c>
       <c r="C447" t="n">
-        <v>2133941455.612873</v>
+        <v>2006465847.104153</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5361,10 @@
         <v>1.48</v>
       </c>
       <c r="B448" t="n">
-        <v>2135.144755245179</v>
+        <v>2007.768300521259</v>
       </c>
       <c r="C448" t="n">
-        <v>2135144755.245179</v>
+        <v>2007768300.521259</v>
       </c>
     </row>
     <row r="449">
@@ -5372,10 +5372,10 @@
         <v>1.485</v>
       </c>
       <c r="B449" t="n">
-        <v>2136.344673023297</v>
+        <v>2009.06720402697</v>
       </c>
       <c r="C449" t="n">
-        <v>2136344673.023297</v>
+        <v>2009067204.02697</v>
       </c>
     </row>
     <row r="450">
@@ -5383,10 +5383,10 @@
         <v>1.49</v>
       </c>
       <c r="B450" t="n">
-        <v>2137.541229786812</v>
+        <v>2010.362579196103</v>
       </c>
       <c r="C450" t="n">
-        <v>2137541229.786813</v>
+        <v>2010362579.196103</v>
       </c>
     </row>
     <row r="451">
@@ -5394,10 +5394,10 @@
         <v>1.495</v>
       </c>
       <c r="B451" t="n">
-        <v>2138.734446177514</v>
+        <v>2011.654447400516</v>
       </c>
       <c r="C451" t="n">
-        <v>2138734446.177514</v>
+        <v>2011654447.400516</v>
       </c>
     </row>
     <row r="452">
@@ -5405,10 +5405,10 @@
         <v>1.5</v>
       </c>
       <c r="B452" t="n">
-        <v>2139.924342641926</v>
+        <v>2012.942829811691</v>
       </c>
       <c r="C452" t="n">
-        <v>2139924342.641926</v>
+        <v>2012942829.811691</v>
       </c>
     </row>
     <row r="453">
@@ -5416,10 +5416,10 @@
         <v>1.505</v>
       </c>
       <c r="B453" t="n">
-        <v>2141.110939433795</v>
+        <v>2014.227747403273</v>
       </c>
       <c r="C453" t="n">
-        <v>2141110939.433795</v>
+        <v>2014227747.403273</v>
       </c>
     </row>
     <row r="454">
@@ -5427,10 +5427,10 @@
         <v>1.51</v>
       </c>
       <c r="B454" t="n">
-        <v>2142.294256616546</v>
+        <v>2015.509220953569</v>
       </c>
       <c r="C454" t="n">
-        <v>2142294256.616546</v>
+        <v>2015509220.953569</v>
       </c>
     </row>
     <row r="455">
@@ -5438,10 +5438,10 @@
         <v>1.515</v>
       </c>
       <c r="B455" t="n">
-        <v>2143.474314065689</v>
+        <v>2016.787271048006</v>
       </c>
       <c r="C455" t="n">
-        <v>2143474314.065689</v>
+        <v>2016787271.048007</v>
       </c>
     </row>
     <row r="456">
@@ -5449,10 +5449,10 @@
         <v>1.52</v>
       </c>
       <c r="B456" t="n">
-        <v>2144.651131471198</v>
+        <v>2018.061918081551</v>
       </c>
       <c r="C456" t="n">
-        <v>2144651131.471198</v>
+        <v>2018061918.081551</v>
       </c>
     </row>
     <row r="457">
@@ -5460,10 +5460,10 @@
         <v>1.525</v>
       </c>
       <c r="B457" t="n">
-        <v>2145.82472833984</v>
+        <v>2019.333182261094</v>
       </c>
       <c r="C457" t="n">
-        <v>2145824728.33984</v>
+        <v>2019333182.261094</v>
       </c>
     </row>
     <row r="458">
@@ -5471,10 +5471,10 @@
         <v>1.53</v>
       </c>
       <c r="B458" t="n">
-        <v>2146.995123997481</v>
+        <v>2020.601083607791</v>
       </c>
       <c r="C458" t="n">
-        <v>2146995123.997481</v>
+        <v>2020601083.607791</v>
       </c>
     </row>
     <row r="459">
@@ -5482,10 +5482,10 @@
         <v>1.535</v>
       </c>
       <c r="B459" t="n">
-        <v>2148.162337591339</v>
+        <v>2021.865641959373</v>
       </c>
       <c r="C459" t="n">
-        <v>2148162337.591339</v>
+        <v>2021865641.959373</v>
       </c>
     </row>
     <row r="460">
@@ -5493,10 +5493,10 @@
         <v>1.54</v>
       </c>
       <c r="B460" t="n">
-        <v>2149.326388092222</v>
+        <v>2023.126876972416</v>
       </c>
       <c r="C460" t="n">
-        <v>2149326388.092222</v>
+        <v>2023126876.972416</v>
       </c>
     </row>
     <row r="461">
@@ -5504,10 +5504,10 @@
         <v>1.545</v>
       </c>
       <c r="B461" t="n">
-        <v>2150.48729429671</v>
+        <v>2024.384808124579</v>
       </c>
       <c r="C461" t="n">
-        <v>2150487294.29671</v>
+        <v>2024384808.124579</v>
       </c>
     </row>
     <row r="462">
@@ -5515,10 +5515,10 @@
         <v>1.55</v>
       </c>
       <c r="B462" t="n">
-        <v>2151.645074829321</v>
+        <v>2025.639454716803</v>
       </c>
       <c r="C462" t="n">
-        <v>2151645074.829321</v>
+        <v>2025639454.716803</v>
       </c>
     </row>
     <row r="463">
@@ -5526,10 +5526,10 @@
         <v>1.555</v>
       </c>
       <c r="B463" t="n">
-        <v>2152.799748144628</v>
+        <v>2026.890835875481</v>
       </c>
       <c r="C463" t="n">
-        <v>2152799748.144628</v>
+        <v>2026890835.875481</v>
       </c>
     </row>
     <row r="464">
@@ -5537,10 +5537,10 @@
         <v>1.56</v>
       </c>
       <c r="B464" t="n">
-        <v>2153.951332529356</v>
+        <v>2028.138970554587</v>
       </c>
       <c r="C464" t="n">
-        <v>2153951332.529356</v>
+        <v>2028138970.554587</v>
       </c>
     </row>
     <row r="465">
@@ -5548,10 +5548,10 @@
         <v>1.565</v>
       </c>
       <c r="B465" t="n">
-        <v>2155.099846104436</v>
+        <v>2029.383877537784</v>
       </c>
       <c r="C465" t="n">
-        <v>2155099846.104436</v>
+        <v>2029383877.537784</v>
       </c>
     </row>
     <row r="466">
@@ -5559,10 +5559,10 @@
         <v>1.57</v>
       </c>
       <c r="B466" t="n">
-        <v>2156.245306827037</v>
+        <v>2030.625575440487</v>
       </c>
       <c r="C466" t="n">
-        <v>2156245306.827037</v>
+        <v>2030625575.440487</v>
       </c>
     </row>
     <row r="467">
@@ -5570,10 +5570,10 @@
         <v>1.575</v>
       </c>
       <c r="B467" t="n">
-        <v>2157.387732492557</v>
+        <v>2031.864082711902</v>
       </c>
       <c r="C467" t="n">
-        <v>2157387732.492557</v>
+        <v>2031864082.711902</v>
       </c>
     </row>
     <row r="468">
@@ -5581,10 +5581,10 @@
         <v>1.58</v>
       </c>
       <c r="B468" t="n">
-        <v>2158.527140736592</v>
+        <v>2033.099417637033</v>
       </c>
       <c r="C468" t="n">
-        <v>2158527140.736592</v>
+        <v>2033099417.637033</v>
       </c>
     </row>
     <row r="469">
@@ -5592,10 +5592,10 @@
         <v>1.585</v>
       </c>
       <c r="B469" t="n">
-        <v>2159.66354903687</v>
+        <v>2034.331598338656</v>
       </c>
       <c r="C469" t="n">
-        <v>2159663549.03687</v>
+        <v>2034331598.338655</v>
       </c>
     </row>
     <row r="470">
@@ -5603,10 +5603,10 @@
         <v>1.59</v>
       </c>
       <c r="B470" t="n">
-        <v>2160.796974715158</v>
+        <v>2035.560642779266</v>
       </c>
       <c r="C470" t="n">
-        <v>2160796974.715158</v>
+        <v>2035560642.779266</v>
       </c>
     </row>
     <row r="471">
@@ -5614,10 +5614,10 @@
         <v>1.595</v>
       </c>
       <c r="B471" t="n">
-        <v>2161.927434939137</v>
+        <v>2036.786568762994</v>
       </c>
       <c r="C471" t="n">
-        <v>2161927434.939137</v>
+        <v>2036786568.762994</v>
       </c>
     </row>
     <row r="472">
@@ -5625,10 +5625,10 @@
         <v>1.6</v>
       </c>
       <c r="B472" t="n">
-        <v>2163.054946724252</v>
+        <v>2038.009393937491</v>
       </c>
       <c r="C472" t="n">
-        <v>2163054946.724252</v>
+        <v>2038009393.937491</v>
       </c>
     </row>
     <row r="473">
@@ -5636,10 +5636,10 @@
         <v>1.605</v>
       </c>
       <c r="B473" t="n">
-        <v>2164.179526935534</v>
+        <v>2039.229135795791</v>
       </c>
       <c r="C473" t="n">
-        <v>2164179526.935534</v>
+        <v>2039229135.795791</v>
       </c>
     </row>
     <row r="474">
@@ -5647,10 +5647,10 @@
         <v>1.61</v>
       </c>
       <c r="B474" t="n">
-        <v>2165.301192289388</v>
+        <v>2040.445811678141</v>
       </c>
       <c r="C474" t="n">
-        <v>2165301192.289388</v>
+        <v>2040445811.678141</v>
       </c>
     </row>
     <row r="475">
@@ -5658,10 +5658,10 @@
         <v>1.615</v>
       </c>
       <c r="B475" t="n">
-        <v>2166.419959355369</v>
+        <v>2041.659438773804</v>
       </c>
       <c r="C475" t="n">
-        <v>2166419959.355369</v>
+        <v>2041659438.773804</v>
       </c>
     </row>
     <row r="476">
@@ -5669,10 +5669,10 @@
         <v>1.62</v>
       </c>
       <c r="B476" t="n">
-        <v>2167.535844557911</v>
+        <v>2042.870034122838</v>
       </c>
       <c r="C476" t="n">
-        <v>2167535844.557911</v>
+        <v>2042870034.122838</v>
       </c>
     </row>
     <row r="477">
@@ -5680,10 +5680,10 @@
         <v>1.625</v>
       </c>
       <c r="B477" t="n">
-        <v>2168.64886417805</v>
+        <v>2044.077614617846</v>
       </c>
       <c r="C477" t="n">
-        <v>2168648864.17805</v>
+        <v>2044077614.617846</v>
       </c>
     </row>
     <row r="478">
@@ -5691,10 +5691,10 @@
         <v>1.63</v>
       </c>
       <c r="B478" t="n">
-        <v>2169.759034355107</v>
+        <v>2045.282197005701</v>
       </c>
       <c r="C478" t="n">
-        <v>2169759034.355107</v>
+        <v>2045282197.005701</v>
       </c>
     </row>
     <row r="479">
@@ -5702,10 +5702,10 @@
         <v>1.635</v>
       </c>
       <c r="B479" t="n">
-        <v>2170.866371088356</v>
+        <v>2046.483797889247</v>
       </c>
       <c r="C479" t="n">
-        <v>2170866371.088356</v>
+        <v>2046483797.889247</v>
       </c>
     </row>
     <row r="480">
@@ -5713,10 +5713,10 @@
         <v>1.64</v>
       </c>
       <c r="B480" t="n">
-        <v>2171.970890238661</v>
+        <v>2047.682433728969</v>
       </c>
       <c r="C480" t="n">
-        <v>2171970890.238661</v>
+        <v>2047682433.728969</v>
       </c>
     </row>
     <row r="481">
@@ -5724,10 +5724,10 @@
         <v>1.645</v>
       </c>
       <c r="B481" t="n">
-        <v>2173.072607530089</v>
+        <v>2048.87812084465</v>
       </c>
       <c r="C481" t="n">
-        <v>2173072607.530089</v>
+        <v>2048878120.84465</v>
       </c>
     </row>
     <row r="482">
@@ -5735,10 +5735,10 @@
         <v>1.65</v>
       </c>
       <c r="B482" t="n">
-        <v>2174.171538551508</v>
+        <v>2050.070875416995</v>
       </c>
       <c r="C482" t="n">
-        <v>2174171538.551508</v>
+        <v>2050070875.416995</v>
       </c>
     </row>
     <row r="483">
@@ -5746,10 +5746,10 @@
         <v>1.655</v>
       </c>
       <c r="B483" t="n">
-        <v>2175.267698758146</v>
+        <v>2051.260713489229</v>
       </c>
       <c r="C483" t="n">
-        <v>2175267698.758146</v>
+        <v>2051260713.489229</v>
       </c>
     </row>
     <row r="484">
@@ -5757,10 +5757,10 @@
         <v>1.66</v>
       </c>
       <c r="B484" t="n">
-        <v>2176.361103473143</v>
+        <v>2052.44765096868</v>
       </c>
       <c r="C484" t="n">
-        <v>2176361103.473144</v>
+        <v>2052447650.96868</v>
       </c>
     </row>
     <row r="485">
@@ -5768,10 +5768,10 @@
         <v>1.665</v>
       </c>
       <c r="B485" t="n">
-        <v>2177.451767889073</v>
+        <v>2053.631703628337</v>
       </c>
       <c r="C485" t="n">
-        <v>2177451767.889073</v>
+        <v>2053631703.628337</v>
       </c>
     </row>
     <row r="486">
@@ -5779,10 +5779,10 @@
         <v>1.67</v>
       </c>
       <c r="B486" t="n">
-        <v>2178.539707069442</v>
+        <v>2054.812887108381</v>
       </c>
       <c r="C486" t="n">
-        <v>2178539707.069442</v>
+        <v>2054812887.108381</v>
       </c>
     </row>
     <row r="487">
@@ -5790,10 +5790,10 @@
         <v>1.675</v>
       </c>
       <c r="B487" t="n">
-        <v>2179.624935950167</v>
+        <v>2055.991216917697</v>
       </c>
       <c r="C487" t="n">
-        <v>2179624935.950167</v>
+        <v>2055991216.917697</v>
       </c>
     </row>
     <row r="488">
@@ -5801,10 +5801,10 @@
         <v>1.68</v>
       </c>
       <c r="B488" t="n">
-        <v>2180.707469341039</v>
+        <v>2057.166708435366</v>
       </c>
       <c r="C488" t="n">
-        <v>2180707469.341039</v>
+        <v>2057166708.435366</v>
       </c>
     </row>
     <row r="489">
@@ -5812,10 +5812,10 @@
         <v>1.685</v>
       </c>
       <c r="B489" t="n">
-        <v>2181.787321927152</v>
+        <v>2058.339376912131</v>
       </c>
       <c r="C489" t="n">
-        <v>2181787321.927152</v>
+        <v>2058339376.912131</v>
       </c>
     </row>
     <row r="490">
@@ -5823,10 +5823,10 @@
         <v>1.69</v>
       </c>
       <c r="B490" t="n">
-        <v>2182.864508270326</v>
+        <v>2059.50923747185</v>
       </c>
       <c r="C490" t="n">
-        <v>2182864508.270327</v>
+        <v>2059509237.47185</v>
       </c>
     </row>
     <row r="491">
@@ -5834,10 +5834,10 @@
         <v>1.695</v>
       </c>
       <c r="B491" t="n">
-        <v>2183.9390428105</v>
+        <v>2060.676305112918</v>
       </c>
       <c r="C491" t="n">
-        <v>2183939042.8105</v>
+        <v>2060676305.112918</v>
       </c>
     </row>
     <row r="492">
@@ -5845,10 +5845,10 @@
         <v>1.7</v>
       </c>
       <c r="B492" t="n">
-        <v>2185.010939867105</v>
+        <v>2061.840594709676</v>
       </c>
       <c r="C492" t="n">
-        <v>2185010939.867105</v>
+        <v>2061840594.709676</v>
       </c>
     </row>
     <row r="493">
@@ -5856,10 +5856,10 @@
         <v>1.71</v>
       </c>
       <c r="B493" t="n">
-        <v>2187.146878212942</v>
+        <v>2064.160898655675</v>
       </c>
       <c r="C493" t="n">
-        <v>2187146878.212942</v>
+        <v>2064160898.655675</v>
       </c>
     </row>
     <row r="494">
@@ -5867,10 +5867,10 @@
         <v>1.72</v>
       </c>
       <c r="B494" t="n">
-        <v>2189.272435504282</v>
+        <v>2066.470265875751</v>
       </c>
       <c r="C494" t="n">
-        <v>2189272435.504282</v>
+        <v>2066470265.875751</v>
       </c>
     </row>
     <row r="495">
@@ -5878,10 +5878,10 @@
         <v>1.73</v>
       </c>
       <c r="B495" t="n">
-        <v>2191.387722094344</v>
+        <v>2068.768811037742</v>
       </c>
       <c r="C495" t="n">
-        <v>2191387722.094344</v>
+        <v>2068768811.037742</v>
       </c>
     </row>
     <row r="496">
@@ -5889,10 +5889,10 @@
         <v>1.74</v>
       </c>
       <c r="B496" t="n">
-        <v>2193.492846533858</v>
+        <v>2071.056646953093</v>
       </c>
       <c r="C496" t="n">
-        <v>2193492846.533858</v>
+        <v>2071056646.953093</v>
       </c>
     </row>
     <row r="497">
@@ -5900,10 +5900,10 @@
         <v>1.75</v>
       </c>
       <c r="B497" t="n">
-        <v>2195.587915610669</v>
+        <v>2073.333884617375</v>
       </c>
       <c r="C497" t="n">
-        <v>2195587915.610669</v>
+        <v>2073333884.617375</v>
       </c>
     </row>
     <row r="498">
@@ -5911,10 +5911,10 @@
         <v>1.76</v>
       </c>
       <c r="B498" t="n">
-        <v>2197.673034388247</v>
+        <v>2075.600633249699</v>
       </c>
       <c r="C498" t="n">
-        <v>2197673034.388247</v>
+        <v>2075600633.249699</v>
       </c>
     </row>
     <row r="499">
@@ -5922,10 +5922,10 @@
         <v>1.77</v>
       </c>
       <c r="B499" t="n">
-        <v>2199.748306243148</v>
+        <v>2077.857000331056</v>
       </c>
       <c r="C499" t="n">
-        <v>2199748306.243148</v>
+        <v>2077857000.331056</v>
       </c>
     </row>
     <row r="500">
@@ -5933,10 +5933,10 @@
         <v>1.78</v>
       </c>
       <c r="B500" t="n">
-        <v>2201.813832901454</v>
+        <v>2080.10309164161</v>
       </c>
       <c r="C500" t="n">
-        <v>2201813832.901453</v>
+        <v>2080103091.64161</v>
       </c>
     </row>
     <row r="501">
@@ -5944,10 +5944,10 @@
         <v>1.79</v>
       </c>
       <c r="B501" t="n">
-        <v>2203.869714474221</v>
+        <v>2082.339011297002</v>
       </c>
       <c r="C501" t="n">
-        <v>2203869714.474221</v>
+        <v>2082339011.297002</v>
       </c>
     </row>
     <row r="502">
@@ -5955,10 +5955,10 @@
         <v>1.8</v>
       </c>
       <c r="B502" t="n">
-        <v>2205.916049491979</v>
+        <v>2084.564861783664</v>
       </c>
       <c r="C502" t="n">
-        <v>2205916049.491979</v>
+        <v>2084564861.783664</v>
       </c>
     </row>
     <row r="503">
@@ -5966,10 +5966,10 @@
         <v>1.81</v>
       </c>
       <c r="B503" t="n">
-        <v>2207.952934938303</v>
+        <v>2086.780743993202</v>
       </c>
       <c r="C503" t="n">
-        <v>2207952934.938303</v>
+        <v>2086780743.993202</v>
       </c>
     </row>
     <row r="504">
@@ -5977,10 +5977,10 @@
         <v>1.82</v>
       </c>
       <c r="B504" t="n">
-        <v>2209.980466282491</v>
+        <v>2088.986757255869</v>
       </c>
       <c r="C504" t="n">
-        <v>2209980466.282491</v>
+        <v>2088986757.255869</v>
       </c>
     </row>
     <row r="505">
@@ -5988,10 +5988,10 @@
         <v>1.83</v>
       </c>
       <c r="B505" t="n">
-        <v>2211.99873751138</v>
+        <v>2091.182999373148</v>
       </c>
       <c r="C505" t="n">
-        <v>2211998737.51138</v>
+        <v>2091182999.373147</v>
       </c>
     </row>
     <row r="506">
@@ -5999,10 +5999,10 @@
         <v>1.84</v>
       </c>
       <c r="B506" t="n">
-        <v>2214.007841160318</v>
+        <v>2093.36956664949</v>
       </c>
       <c r="C506" t="n">
-        <v>2214007841.160317</v>
+        <v>2093369566.64949</v>
       </c>
     </row>
     <row r="507">
@@ -6010,10 +6010,10 @@
         <v>1.85</v>
       </c>
       <c r="B507" t="n">
-        <v>2216.007868343326</v>
+        <v>2095.546553923216</v>
       </c>
       <c r="C507" t="n">
-        <v>2216007868.343326</v>
+        <v>2095546553.923216</v>
       </c>
     </row>
     <row r="508">
@@ -6021,10 +6021,10 @@
         <v>1.86</v>
       </c>
       <c r="B508" t="n">
-        <v>2217.998908782479</v>
+        <v>2097.714054596631</v>
       </c>
       <c r="C508" t="n">
-        <v>2217998908.782479</v>
+        <v>2097714054.596631</v>
       </c>
     </row>
     <row r="509">
@@ -6032,10 +6032,10 @@
         <v>1.87</v>
       </c>
       <c r="B509" t="n">
-        <v>2219.981050836522</v>
+        <v>2099.872160665341</v>
       </c>
       <c r="C509" t="n">
-        <v>2219981050.836522</v>
+        <v>2099872160.665341</v>
       </c>
     </row>
     <row r="510">
@@ -6043,10 +6043,10 @@
         <v>1.88</v>
       </c>
       <c r="B510" t="n">
-        <v>2221.954381528743</v>
+        <v>2102.020962746838</v>
       </c>
       <c r="C510" t="n">
-        <v>2221954381.528743</v>
+        <v>2102020962.746838</v>
       </c>
     </row>
     <row r="511">
@@ -6054,10 +6054,10 @@
         <v>1.89</v>
       </c>
       <c r="B511" t="n">
-        <v>2223.91898657414</v>
+        <v>2104.160550108345</v>
       </c>
       <c r="C511" t="n">
-        <v>2223918986.574141</v>
+        <v>2104160550.108345</v>
       </c>
     </row>
     <row r="512">
@@ -6065,10 +6065,10 @@
         <v>1.9</v>
       </c>
       <c r="B512" t="n">
-        <v>2225.87495040589</v>
+        <v>2106.29101069396</v>
       </c>
       <c r="C512" t="n">
-        <v>2225874950.40589</v>
+        <v>2106291010.69396</v>
       </c>
     </row>
     <row r="513">
@@ -6076,10 +6076,10 @@
         <v>1.91</v>
       </c>
       <c r="B513" t="n">
-        <v>2227.822356201146</v>
+        <v>2108.412431151105</v>
       </c>
       <c r="C513" t="n">
-        <v>2227822356.201146</v>
+        <v>2108412431.151104</v>
       </c>
     </row>
     <row r="514">
@@ -6087,10 +6087,10 @@
         <v>1.92</v>
       </c>
       <c r="B514" t="n">
-        <v>2229.761285906186</v>
+        <v>2110.524896856322</v>
       </c>
       <c r="C514" t="n">
-        <v>2229761285.906186</v>
+        <v>2110524896.856322</v>
       </c>
     </row>
     <row r="515">
@@ -6098,10 +6098,10 @@
         <v>1.93</v>
       </c>
       <c r="B515" t="n">
-        <v>2231.691820260927</v>
+        <v>2112.628491940423</v>
       </c>
       <c r="C515" t="n">
-        <v>2231691820.260927</v>
+        <v>2112628491.940423</v>
       </c>
     </row>
     <row r="516">
@@ -6109,10 +6109,10 @@
         <v>1.94</v>
       </c>
       <c r="B516" t="n">
-        <v>2233.614038822831</v>
+        <v>2114.723299313004</v>
       </c>
       <c r="C516" t="n">
-        <v>2233614038.822831</v>
+        <v>2114723299.313004</v>
       </c>
     </row>
     <row r="517">
@@ -6120,10 +6120,10 @@
         <v>1.95</v>
       </c>
       <c r="B517" t="n">
-        <v>2235.528019990209</v>
+        <v>2116.809400686368</v>
       </c>
       <c r="C517" t="n">
-        <v>2235528019.990209</v>
+        <v>2116809400.686368</v>
       </c>
     </row>
     <row r="518">
@@ -6131,10 +6131,10 @@
         <v>1.96</v>
       </c>
       <c r="B518" t="n">
-        <v>2237.433841024957</v>
+        <v>2118.886876598844</v>
       </c>
       <c r="C518" t="n">
-        <v>2237433841.024957</v>
+        <v>2118886876.598844</v>
       </c>
     </row>
     <row r="519">
@@ -6142,10 +6142,10 @@
         <v>1.97</v>
       </c>
       <c r="B519" t="n">
-        <v>2239.331578074728</v>
+        <v>2120.955806437556</v>
       </c>
       <c r="C519" t="n">
-        <v>2239331578.074728</v>
+        <v>2120955806.437556</v>
       </c>
     </row>
     <row r="520">
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="B520" t="n">
-        <v>2241.221306194566</v>
+        <v>2123.016268460611</v>
       </c>
       <c r="C520" t="n">
-        <v>2241221306.194566</v>
+        <v>2123016268.460611</v>
       </c>
     </row>
     <row r="521">
@@ -6164,10 +6164,10 @@
         <v>1.99</v>
       </c>
       <c r="B521" t="n">
-        <v>2243.103099368004</v>
+        <v>2125.068339818775</v>
       </c>
       <c r="C521" t="n">
-        <v>2243103099.368004</v>
+        <v>2125068339.818775</v>
       </c>
     </row>
     <row r="522">
@@ -6175,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="B522" t="n">
-        <v>2244.977030527659</v>
+        <v>2127.112096576607</v>
       </c>
       <c r="C522" t="n">
-        <v>2244977030.527659</v>
+        <v>2127112096.576607</v>
       </c>
     </row>
     <row r="523">
@@ -6186,10 +6186,10 @@
         <v>2.02</v>
       </c>
       <c r="B523" t="n">
-        <v>2248.701593401608</v>
+        <v>2131.174965241817</v>
       </c>
       <c r="C523" t="n">
-        <v>2248701593.401608</v>
+        <v>2131174965.241817</v>
       </c>
     </row>
     <row r="524">
@@ -6197,10 +6197,10 @@
         <v>2.04</v>
       </c>
       <c r="B524" t="n">
-        <v>2252.395558010747</v>
+        <v>2135.20546202058</v>
       </c>
       <c r="C524" t="n">
-        <v>2252395558.010747</v>
+        <v>2135205462.02058</v>
       </c>
     </row>
     <row r="525">
@@ -6208,10 +6208,10 @@
         <v>2.06</v>
       </c>
       <c r="B525" t="n">
-        <v>2256.059471971959</v>
+        <v>2139.204158368618</v>
       </c>
       <c r="C525" t="n">
-        <v>2256059471.971959</v>
+        <v>2139204158.368618</v>
       </c>
     </row>
     <row r="526">
@@ -6219,10 +6219,10 @@
         <v>2.08</v>
       </c>
       <c r="B526" t="n">
-        <v>2259.69386790197</v>
+        <v>2143.171610226154</v>
       </c>
       <c r="C526" t="n">
-        <v>2259693867.90197</v>
+        <v>2143171610.226154</v>
       </c>
     </row>
     <row r="527">
@@ -6230,10 +6230,10 @@
         <v>2.1</v>
       </c>
       <c r="B527" t="n">
-        <v>2263.299263967928</v>
+        <v>2147.108358583715</v>
       </c>
       <c r="C527" t="n">
-        <v>2263299263.967928</v>
+        <v>2147108358.583715</v>
       </c>
     </row>
     <row r="528">
@@ -6241,10 +6241,10 @@
         <v>2.12</v>
       </c>
       <c r="B528" t="n">
-        <v>2266.876164412738</v>
+        <v>2151.014930022132</v>
       </c>
       <c r="C528" t="n">
-        <v>2266876164.412738</v>
+        <v>2151014930.022132</v>
       </c>
     </row>
     <row r="529">
@@ -6252,10 +6252,10 @@
         <v>2.14</v>
       </c>
       <c r="B529" t="n">
-        <v>2270.42506005655</v>
+        <v>2154.891837228148</v>
       </c>
       <c r="C529" t="n">
-        <v>2270425060.05655</v>
+        <v>2154891837.228148</v>
       </c>
     </row>
     <row r="530">
@@ -6263,10 +6263,10 @@
         <v>2.16</v>
       </c>
       <c r="B530" t="n">
-        <v>2273.94642877567</v>
+        <v>2158.73957948694</v>
       </c>
       <c r="C530" t="n">
-        <v>2273946428.775671</v>
+        <v>2158739579.48694</v>
       </c>
     </row>
     <row r="531">
@@ -6274,10 +6274,10 @@
         <v>2.18</v>
       </c>
       <c r="B531" t="n">
-        <v>2277.440735960146</v>
+        <v>2162.55864315281</v>
       </c>
       <c r="C531" t="n">
-        <v>2277440735.960145</v>
+        <v>2162558643.15281</v>
       </c>
     </row>
     <row r="532">
@@ -6285,10 +6285,10 @@
         <v>2.2</v>
       </c>
       <c r="B532" t="n">
-        <v>2280.908434951122</v>
+        <v>2166.349502099187</v>
       </c>
       <c r="C532" t="n">
-        <v>2280908434.951122</v>
+        <v>2166349502.099187</v>
       </c>
     </row>
     <row r="533">
@@ -6296,10 +6296,10 @@
         <v>2.22</v>
       </c>
       <c r="B533" t="n">
-        <v>2284.349967459071</v>
+        <v>2170.112618149038</v>
       </c>
       <c r="C533" t="n">
-        <v>2284349967.459071</v>
+        <v>2170112618.149038</v>
       </c>
     </row>
     <row r="534">
@@ -6307,10 +6307,10 @@
         <v>2.24</v>
       </c>
       <c r="B534" t="n">
-        <v>2287.765763963874</v>
+        <v>2173.848441486704</v>
       </c>
       <c r="C534" t="n">
-        <v>2287765763.963874</v>
+        <v>2173848441.486704</v>
       </c>
     </row>
     <row r="535">
@@ -6318,10 +6318,10 @@
         <v>2.26</v>
       </c>
       <c r="B535" t="n">
-        <v>2291.156244097704</v>
+        <v>2177.557411052131</v>
       </c>
       <c r="C535" t="n">
-        <v>2291156244.097704</v>
+        <v>2177557411.052131</v>
       </c>
     </row>
     <row r="536">
@@ -6329,10 +6329,10 @@
         <v>2.28</v>
       </c>
       <c r="B536" t="n">
-        <v>2294.521817011604</v>
+        <v>2181.239954918374</v>
       </c>
       <c r="C536" t="n">
-        <v>2294521817.011604</v>
+        <v>2181239954.918374</v>
       </c>
     </row>
     <row r="537">
@@ -6340,10 +6340,10 @@
         <v>2.3</v>
       </c>
       <c r="B537" t="n">
-        <v>2297.862881726568</v>
+        <v>2184.896490653255</v>
       </c>
       <c r="C537" t="n">
-        <v>2297862881.726568</v>
+        <v>2184896490.653255</v>
       </c>
     </row>
     <row r="538">
@@ -6351,10 +6351,10 @@
         <v>2.32</v>
       </c>
       <c r="B538" t="n">
-        <v>2301.179827469935</v>
+        <v>2188.527425665946</v>
       </c>
       <c r="C538" t="n">
-        <v>2301179827.469935</v>
+        <v>2188527425.665946</v>
       </c>
     </row>
     <row r="539">
@@ -6362,10 +6362,10 @@
         <v>2.34</v>
       </c>
       <c r="B539" t="n">
-        <v>2304.473033997815</v>
+        <v>2192.133157539246</v>
       </c>
       <c r="C539" t="n">
-        <v>2304473033.997815</v>
+        <v>2192133157.539246</v>
       </c>
     </row>
     <row r="540">
@@ -6373,10 +6373,10 @@
         <v>2.36</v>
       </c>
       <c r="B540" t="n">
-        <v>2307.742871904239</v>
+        <v>2195.714074348238</v>
       </c>
       <c r="C540" t="n">
-        <v>2307742871.904239</v>
+        <v>2195714074.348238</v>
       </c>
     </row>
     <row r="541">
@@ -6384,10 +6384,10 @@
         <v>2.38</v>
       </c>
       <c r="B541" t="n">
-        <v>2310.989702917701</v>
+        <v>2199.270554966033</v>
       </c>
       <c r="C541" t="n">
-        <v>2310989702.917701</v>
+        <v>2199270554.966033</v>
       </c>
     </row>
     <row r="542">
@@ -6395,10 +6395,10 @@
         <v>2.4</v>
       </c>
       <c r="B542" t="n">
-        <v>2314.213880185699</v>
+        <v>2202.802969357178</v>
       </c>
       <c r="C542" t="n">
-        <v>2314213880.185699</v>
+        <v>2202802969.357178</v>
       </c>
     </row>
     <row r="543">
@@ -6406,10 +6406,10 @@
         <v>2.42</v>
       </c>
       <c r="B543" t="n">
-        <v>2317.415748547849</v>
+        <v>2206.311678859367</v>
       </c>
       <c r="C543" t="n">
-        <v>2317415748.547849</v>
+        <v>2206311678.859367</v>
       </c>
     </row>
     <row r="544">
@@ -6417,10 +6417,10 @@
         <v>2.44</v>
       </c>
       <c r="B544" t="n">
-        <v>2320.595644798137</v>
+        <v>2209.797036453998</v>
       </c>
       <c r="C544" t="n">
-        <v>2320595644.798137</v>
+        <v>2209797036.453998</v>
       </c>
     </row>
     <row r="545">
@@ -6428,10 +6428,10 @@
         <v>2.46</v>
       </c>
       <c r="B545" t="n">
-        <v>2323.753897936816</v>
+        <v>2213.259387026085</v>
       </c>
       <c r="C545" t="n">
-        <v>2323753897.936816</v>
+        <v>2213259387.026085</v>
       </c>
     </row>
     <row r="546">
@@ -6439,10 +6439,10 @@
         <v>2.48</v>
       </c>
       <c r="B546" t="n">
-        <v>2326.890829412441</v>
+        <v>2216.69906761407</v>
       </c>
       <c r="C546" t="n">
-        <v>2326890829.412441</v>
+        <v>2216699067.61407</v>
       </c>
     </row>
     <row r="547">
@@ -6450,10 +6450,10 @@
         <v>2.5</v>
       </c>
       <c r="B547" t="n">
-        <v>2330.006753354492</v>
+        <v>2220.116407649964</v>
       </c>
       <c r="C547" t="n">
-        <v>2330006753.354492</v>
+        <v>2220116407.649963</v>
       </c>
     </row>
     <row r="548">
@@ -6461,10 +6461,10 @@
         <v>2.52</v>
       </c>
       <c r="B548" t="n">
-        <v>2333.101976797054</v>
+        <v>2223.511729190289</v>
       </c>
       <c r="C548" t="n">
-        <v>2333101976.797054</v>
+        <v>2223511729.190289</v>
       </c>
     </row>
     <row r="549">
@@ -6472,10 +6472,10 @@
         <v>2.54</v>
       </c>
       <c r="B549" t="n">
-        <v>2336.17679989393</v>
+        <v>2226.885347138239</v>
       </c>
       <c r="C549" t="n">
-        <v>2336176799.89393</v>
+        <v>2226885347.138239</v>
       </c>
     </row>
     <row r="550">
@@ -6483,10 +6483,10 @@
         <v>2.56</v>
       </c>
       <c r="B550" t="n">
-        <v>2339.231516125597</v>
+        <v>2230.237569457454</v>
       </c>
       <c r="C550" t="n">
-        <v>2339231516.125597</v>
+        <v>2230237569.457454</v>
       </c>
     </row>
     <row r="551">
@@ -6494,10 +6494,10 @@
         <v>2.58</v>
       </c>
       <c r="B551" t="n">
-        <v>2342.266412498383</v>
+        <v>2233.568697377789</v>
       </c>
       <c r="C551" t="n">
-        <v>2342266412.498383</v>
+        <v>2233568697.377789</v>
       </c>
     </row>
     <row r="552">
@@ -6505,10 +6505,10 @@
         <v>2.6</v>
       </c>
       <c r="B552" t="n">
-        <v>2345.281769736197</v>
+        <v>2236.879025593448</v>
       </c>
       <c r="C552" t="n">
-        <v>2345281769.736197</v>
+        <v>2236879025.593448</v>
       </c>
     </row>
     <row r="553">
@@ -6516,10 +6516,10 @@
         <v>2.62</v>
       </c>
       <c r="B553" t="n">
-        <v>2348.27786246516</v>
+        <v>2240.168842453802</v>
       </c>
       <c r="C553" t="n">
-        <v>2348277862.465159</v>
+        <v>2240168842.453803</v>
       </c>
     </row>
     <row r="554">
@@ -6527,10 +6527,10 @@
         <v>2.64</v>
       </c>
       <c r="B554" t="n">
-        <v>2351.254959391444</v>
+        <v>2243.438430147239</v>
       </c>
       <c r="C554" t="n">
-        <v>2351254959.391444</v>
+        <v>2243438430.147239</v>
       </c>
     </row>
     <row r="555">
@@ -6538,10 +6538,10 @@
         <v>2.66</v>
       </c>
       <c r="B555" t="n">
-        <v>2354.21332347262</v>
+        <v>2246.688064878323</v>
       </c>
       <c r="C555" t="n">
-        <v>2354213323.47262</v>
+        <v>2246688064.878323</v>
       </c>
     </row>
     <row r="556">
@@ -6549,10 +6549,10 @@
         <v>2.68</v>
       </c>
       <c r="B556" t="n">
-        <v>2357.153212082806</v>
+        <v>2249.918017038584</v>
       </c>
       <c r="C556" t="n">
-        <v>2357153212.082806</v>
+        <v>2249918017.038584</v>
       </c>
     </row>
     <row r="557">
@@ -6560,10 +6560,10 @@
         <v>2.7</v>
       </c>
       <c r="B557" t="n">
-        <v>2360.074877171863</v>
+        <v>2253.128551371193</v>
       </c>
       <c r="C557" t="n">
-        <v>2360074877.171863</v>
+        <v>2253128551.371193</v>
       </c>
     </row>
     <row r="558">
@@ -6571,10 +6571,10 @@
         <v>2.72</v>
       </c>
       <c r="B558" t="n">
-        <v>2362.97856541893</v>
+        <v>2256.319927129785</v>
       </c>
       <c r="C558" t="n">
-        <v>2362978565.41893</v>
+        <v>2256319927.129785</v>
       </c>
     </row>
     <row r="559">
@@ -6582,10 +6582,10 @@
         <v>2.74</v>
       </c>
       <c r="B559" t="n">
-        <v>2365.864518380502</v>
+        <v>2259.492398231696</v>
       </c>
       <c r="C559" t="n">
-        <v>2365864518.380502</v>
+        <v>2259492398.231696</v>
       </c>
     </row>
     <row r="560">
@@ -6593,10 +6593,10 @@
         <v>2.76</v>
       </c>
       <c r="B560" t="n">
-        <v>2368.732972633311</v>
+        <v>2262.64621340583</v>
       </c>
       <c r="C560" t="n">
-        <v>2368732972.633311</v>
+        <v>2262646213.40583</v>
       </c>
     </row>
     <row r="561">
@@ -6604,10 +6604,10 @@
         <v>2.78</v>
       </c>
       <c r="B561" t="n">
-        <v>2371.584159912213</v>
+        <v>2265.781616335391</v>
       </c>
       <c r="C561" t="n">
-        <v>2371584159.912213</v>
+        <v>2265781616.335392</v>
       </c>
     </row>
     <row r="562">
@@ -6615,10 +6615,10 @@
         <v>2.8</v>
       </c>
       <c r="B562" t="n">
-        <v>2374.418307243299</v>
+        <v>2268.898845795698</v>
       </c>
       <c r="C562" t="n">
-        <v>2374418307.243299</v>
+        <v>2268898845.795699</v>
       </c>
     </row>
     <row r="563">
@@ -6626,10 +6626,10 @@
         <v>2.82</v>
       </c>
       <c r="B563" t="n">
-        <v>2377.235637072423</v>
+        <v>2271.998135787277</v>
       </c>
       <c r="C563" t="n">
-        <v>2377235637.072423</v>
+        <v>2271998135.787277</v>
       </c>
     </row>
     <row r="564">
@@ -6637,10 +6637,10 @@
         <v>2.84</v>
       </c>
       <c r="B564" t="n">
-        <v>2380.03636738934</v>
+        <v>2275.079715664424</v>
       </c>
       <c r="C564" t="n">
-        <v>2380036367.38934</v>
+        <v>2275079715.664424</v>
       </c>
     </row>
     <row r="565">
@@ -6648,10 +6648,10 @@
         <v>2.86</v>
       </c>
       <c r="B565" t="n">
-        <v>2382.820711847626</v>
+        <v>2278.143810259442</v>
       </c>
       <c r="C565" t="n">
-        <v>2382820711.847626</v>
+        <v>2278143810.259441</v>
       </c>
     </row>
     <row r="566">
@@ -6659,10 +6659,10 @@
         <v>2.88</v>
       </c>
       <c r="B566" t="n">
-        <v>2385.588879880564</v>
+        <v>2281.190640002695</v>
       </c>
       <c r="C566" t="n">
-        <v>2385588879.880565</v>
+        <v>2281190640.002695</v>
       </c>
     </row>
     <row r="567">
@@ -6670,10 +6670,10 @@
         <v>2.9</v>
       </c>
       <c r="B567" t="n">
-        <v>2388.34107681315</v>
+        <v>2284.220421038682</v>
       </c>
       <c r="C567" t="n">
-        <v>2388341076.81315</v>
+        <v>2284220421.038682</v>
       </c>
     </row>
     <row r="568">
@@ -6681,10 +6681,10 @@
         <v>2.92</v>
       </c>
       <c r="B568" t="n">
-        <v>2391.077503970372</v>
+        <v>2287.233365338262</v>
       </c>
       <c r="C568" t="n">
-        <v>2391077503.970372</v>
+        <v>2287233365.338262</v>
       </c>
     </row>
     <row r="569">
@@ -6692,10 +6692,10 @@
         <v>2.94</v>
       </c>
       <c r="B569" t="n">
-        <v>2393.798358781921</v>
+        <v>2290.229680807195</v>
       </c>
       <c r="C569" t="n">
-        <v>2393798358.781921</v>
+        <v>2290229680.807195</v>
       </c>
     </row>
     <row r="570">
@@ -6703,10 +6703,10 @@
         <v>2.96</v>
       </c>
       <c r="B570" t="n">
-        <v>2396.503834883469</v>
+        <v>2293.209571391153</v>
       </c>
       <c r="C570" t="n">
-        <v>2396503834.883469</v>
+        <v>2293209571.391153</v>
       </c>
     </row>
     <row r="571">
@@ -6714,10 +6714,10 @@
         <v>2.98</v>
       </c>
       <c r="B571" t="n">
-        <v>2399.194122214643</v>
+        <v>2296.173237177314</v>
       </c>
       <c r="C571" t="n">
-        <v>2399194122.214643</v>
+        <v>2296173237.177314</v>
       </c>
     </row>
     <row r="572">
@@ -6725,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="B572" t="n">
-        <v>2401.869407113842</v>
+        <v>2299.120874492702</v>
       </c>
       <c r="C572" t="n">
-        <v>2401869407.113842</v>
+        <v>2299120874.492702</v>
       </c>
     </row>
   </sheetData>
